--- a/Nam3_HK1/CNPM_SoftTech/WorkBreakdownStructure.xlsx
+++ b/Nam3_HK1/CNPM_SoftTech/WorkBreakdownStructure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\SGU-Course\Nam3_HK1\CNPM_SoftTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8488CC9F-E26D-4FF8-90A5-32CA7432097B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE02577D-3BB2-42CB-B6A7-17278F7BA364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="48">
   <si>
     <t>WORK BREAKDOWN STRUCTURE WITH GANTT CHART TEMPLATE</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>LIÊN HỆ VỚI QUẢN TRỊ</t>
+  </si>
+  <si>
+    <t>QUẢN LÍ KHÁCH HÀNG</t>
   </si>
 </sst>
 </file>
@@ -642,19 +645,19 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -876,9 +879,9 @@
   </sheetPr>
   <dimension ref="A1:CO943"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1285,125 +1288,125 @@
       <c r="H7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="49" t="s">
+      <c r="I7" s="43" t="s">
         <v>13</v>
       </c>
       <c r="J7" s="44"/>
       <c r="K7" s="44"/>
       <c r="L7" s="44"/>
       <c r="M7" s="45"/>
-      <c r="N7" s="43" t="s">
+      <c r="N7" s="46" t="s">
         <v>14</v>
       </c>
       <c r="O7" s="44"/>
       <c r="P7" s="44"/>
       <c r="Q7" s="44"/>
       <c r="R7" s="45"/>
-      <c r="S7" s="43" t="s">
+      <c r="S7" s="46" t="s">
         <v>15</v>
       </c>
       <c r="T7" s="44"/>
       <c r="U7" s="44"/>
       <c r="V7" s="44"/>
       <c r="W7" s="45"/>
-      <c r="X7" s="43" t="s">
+      <c r="X7" s="46" t="s">
         <v>16</v>
       </c>
       <c r="Y7" s="44"/>
       <c r="Z7" s="44"/>
       <c r="AA7" s="44"/>
       <c r="AB7" s="45"/>
-      <c r="AC7" s="43" t="s">
+      <c r="AC7" s="46" t="s">
         <v>17</v>
       </c>
       <c r="AD7" s="44"/>
       <c r="AE7" s="44"/>
       <c r="AF7" s="44"/>
       <c r="AG7" s="45"/>
-      <c r="AH7" s="43" t="s">
+      <c r="AH7" s="46" t="s">
         <v>18</v>
       </c>
       <c r="AI7" s="44"/>
       <c r="AJ7" s="44"/>
       <c r="AK7" s="44"/>
       <c r="AL7" s="45"/>
-      <c r="AM7" s="43" t="s">
+      <c r="AM7" s="46" t="s">
         <v>19</v>
       </c>
       <c r="AN7" s="44"/>
       <c r="AO7" s="44"/>
       <c r="AP7" s="44"/>
       <c r="AQ7" s="45"/>
-      <c r="AR7" s="43" t="s">
+      <c r="AR7" s="46" t="s">
         <v>20</v>
       </c>
       <c r="AS7" s="44"/>
       <c r="AT7" s="44"/>
       <c r="AU7" s="44"/>
       <c r="AV7" s="45"/>
-      <c r="AW7" s="43" t="s">
+      <c r="AW7" s="46" t="s">
         <v>21</v>
       </c>
       <c r="AX7" s="44"/>
       <c r="AY7" s="44"/>
       <c r="AZ7" s="44"/>
       <c r="BA7" s="45"/>
-      <c r="BB7" s="43" t="s">
+      <c r="BB7" s="46" t="s">
         <v>22</v>
       </c>
       <c r="BC7" s="44"/>
       <c r="BD7" s="44"/>
       <c r="BE7" s="44"/>
       <c r="BF7" s="45"/>
-      <c r="BG7" s="43" t="s">
+      <c r="BG7" s="46" t="s">
         <v>23</v>
       </c>
       <c r="BH7" s="44"/>
       <c r="BI7" s="44"/>
       <c r="BJ7" s="44"/>
       <c r="BK7" s="45"/>
-      <c r="BL7" s="43" t="s">
+      <c r="BL7" s="46" t="s">
         <v>24</v>
       </c>
       <c r="BM7" s="44"/>
       <c r="BN7" s="44"/>
       <c r="BO7" s="44"/>
       <c r="BP7" s="45"/>
-      <c r="BQ7" s="43" t="s">
+      <c r="BQ7" s="46" t="s">
         <v>25</v>
       </c>
       <c r="BR7" s="44"/>
       <c r="BS7" s="44"/>
       <c r="BT7" s="44"/>
       <c r="BU7" s="45"/>
-      <c r="BV7" s="46" t="s">
+      <c r="BV7" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="BW7" s="47"/>
-      <c r="BX7" s="47"/>
-      <c r="BY7" s="47"/>
-      <c r="BZ7" s="48"/>
-      <c r="CA7" s="46" t="s">
+      <c r="BW7" s="48"/>
+      <c r="BX7" s="48"/>
+      <c r="BY7" s="48"/>
+      <c r="BZ7" s="49"/>
+      <c r="CA7" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="CB7" s="47"/>
-      <c r="CC7" s="47"/>
-      <c r="CD7" s="47"/>
-      <c r="CE7" s="48"/>
-      <c r="CF7" s="46" t="s">
+      <c r="CB7" s="48"/>
+      <c r="CC7" s="48"/>
+      <c r="CD7" s="48"/>
+      <c r="CE7" s="49"/>
+      <c r="CF7" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="CG7" s="47"/>
-      <c r="CH7" s="47"/>
-      <c r="CI7" s="47"/>
-      <c r="CJ7" s="48"/>
-      <c r="CK7" s="46" t="s">
+      <c r="CG7" s="48"/>
+      <c r="CH7" s="48"/>
+      <c r="CI7" s="48"/>
+      <c r="CJ7" s="49"/>
+      <c r="CK7" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="CL7" s="47"/>
-      <c r="CM7" s="47"/>
-      <c r="CN7" s="47"/>
-      <c r="CO7" s="48"/>
+      <c r="CL7" s="48"/>
+      <c r="CM7" s="48"/>
+      <c r="CN7" s="48"/>
+      <c r="CO7" s="49"/>
     </row>
     <row r="8" spans="1:93" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -3636,7 +3639,7 @@
         <v>11</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
@@ -21289,11 +21292,6 @@
     <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="S7:W7"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="AC7:AG7"/>
     <mergeCell ref="AH7:AL7"/>
     <mergeCell ref="AM7:AQ7"/>
     <mergeCell ref="CA7:CE7"/>
@@ -21306,6 +21304,11 @@
     <mergeCell ref="BL7:BP7"/>
     <mergeCell ref="BQ7:BU7"/>
     <mergeCell ref="BV7:BZ7"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="S7:W7"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="AC7:AG7"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0" footer="0"/>
   <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Nam3_HK1/CNPM_SoftTech/WorkBreakdownStructure.xlsx
+++ b/Nam3_HK1/CNPM_SoftTech/WorkBreakdownStructure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\SGU-Course\Nam3_HK1\CNPM_SoftTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE02577D-3BB2-42CB-B6A7-17278F7BA364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9816E53A-49B6-4C57-BF80-55ACBFADBAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="56">
   <si>
     <t>WORK BREAKDOWN STRUCTURE WITH GANTT CHART TEMPLATE</t>
   </si>
@@ -147,12 +147,6 @@
     <t>QUÊN MẬT KHẨU</t>
   </si>
   <si>
-    <t>XEM DANH SÁCH SẢN PHẨM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XEM CHI TIẾT SẢN PHẨM </t>
-  </si>
-  <si>
     <t>ĐẶT HÀNG</t>
   </si>
   <si>
@@ -168,7 +162,37 @@
     <t>LIÊN HỆ VỚI QUẢN TRỊ</t>
   </si>
   <si>
-    <t>QUẢN LÍ KHÁCH HÀNG</t>
+    <t>QUẢN LÍ PHƯƠNG THỨC THANH TOÁN</t>
+  </si>
+  <si>
+    <t>ĐỔI MẬT KHẨU</t>
+  </si>
+  <si>
+    <t>ĐỔI THÔNG TIN CÁ NHÂN</t>
+  </si>
+  <si>
+    <t>QUẢN LÍ TÀI KHOẢN QUẢN TRỊ</t>
+  </si>
+  <si>
+    <t>QUẢN LÍ TÀI KHOẢN KHÁCH HÀNG</t>
+  </si>
+  <si>
+    <t>QUẢN LÍ SẢN PHẨM</t>
+  </si>
+  <si>
+    <t>XỬ LÍ ĐƠN HÀNG</t>
+  </si>
+  <si>
+    <t>XỬ LÍ HOÁ ĐƠN</t>
+  </si>
+  <si>
+    <t>THỐNG KÊ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GỬI &amp; IN HOÁ ĐƠN </t>
+  </si>
+  <si>
+    <t>THẢO LUẬN</t>
   </si>
 </sst>
 </file>
@@ -645,19 +669,19 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -877,11 +901,11 @@
     <tabColor rgb="FFF2F2F2"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CO943"/>
+  <dimension ref="A1:CO939"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1288,125 +1312,125 @@
       <c r="H7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="43" t="s">
+      <c r="I7" s="49" t="s">
         <v>13</v>
       </c>
       <c r="J7" s="44"/>
       <c r="K7" s="44"/>
       <c r="L7" s="44"/>
       <c r="M7" s="45"/>
-      <c r="N7" s="46" t="s">
+      <c r="N7" s="43" t="s">
         <v>14</v>
       </c>
       <c r="O7" s="44"/>
       <c r="P7" s="44"/>
       <c r="Q7" s="44"/>
       <c r="R7" s="45"/>
-      <c r="S7" s="46" t="s">
+      <c r="S7" s="43" t="s">
         <v>15</v>
       </c>
       <c r="T7" s="44"/>
       <c r="U7" s="44"/>
       <c r="V7" s="44"/>
       <c r="W7" s="45"/>
-      <c r="X7" s="46" t="s">
+      <c r="X7" s="43" t="s">
         <v>16</v>
       </c>
       <c r="Y7" s="44"/>
       <c r="Z7" s="44"/>
       <c r="AA7" s="44"/>
       <c r="AB7" s="45"/>
-      <c r="AC7" s="46" t="s">
+      <c r="AC7" s="43" t="s">
         <v>17</v>
       </c>
       <c r="AD7" s="44"/>
       <c r="AE7" s="44"/>
       <c r="AF7" s="44"/>
       <c r="AG7" s="45"/>
-      <c r="AH7" s="46" t="s">
+      <c r="AH7" s="43" t="s">
         <v>18</v>
       </c>
       <c r="AI7" s="44"/>
       <c r="AJ7" s="44"/>
       <c r="AK7" s="44"/>
       <c r="AL7" s="45"/>
-      <c r="AM7" s="46" t="s">
+      <c r="AM7" s="43" t="s">
         <v>19</v>
       </c>
       <c r="AN7" s="44"/>
       <c r="AO7" s="44"/>
       <c r="AP7" s="44"/>
       <c r="AQ7" s="45"/>
-      <c r="AR7" s="46" t="s">
+      <c r="AR7" s="43" t="s">
         <v>20</v>
       </c>
       <c r="AS7" s="44"/>
       <c r="AT7" s="44"/>
       <c r="AU7" s="44"/>
       <c r="AV7" s="45"/>
-      <c r="AW7" s="46" t="s">
+      <c r="AW7" s="43" t="s">
         <v>21</v>
       </c>
       <c r="AX7" s="44"/>
       <c r="AY7" s="44"/>
       <c r="AZ7" s="44"/>
       <c r="BA7" s="45"/>
-      <c r="BB7" s="46" t="s">
+      <c r="BB7" s="43" t="s">
         <v>22</v>
       </c>
       <c r="BC7" s="44"/>
       <c r="BD7" s="44"/>
       <c r="BE7" s="44"/>
       <c r="BF7" s="45"/>
-      <c r="BG7" s="46" t="s">
+      <c r="BG7" s="43" t="s">
         <v>23</v>
       </c>
       <c r="BH7" s="44"/>
       <c r="BI7" s="44"/>
       <c r="BJ7" s="44"/>
       <c r="BK7" s="45"/>
-      <c r="BL7" s="46" t="s">
+      <c r="BL7" s="43" t="s">
         <v>24</v>
       </c>
       <c r="BM7" s="44"/>
       <c r="BN7" s="44"/>
       <c r="BO7" s="44"/>
       <c r="BP7" s="45"/>
-      <c r="BQ7" s="46" t="s">
+      <c r="BQ7" s="43" t="s">
         <v>25</v>
       </c>
       <c r="BR7" s="44"/>
       <c r="BS7" s="44"/>
       <c r="BT7" s="44"/>
       <c r="BU7" s="45"/>
-      <c r="BV7" s="47" t="s">
+      <c r="BV7" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="BW7" s="48"/>
-      <c r="BX7" s="48"/>
-      <c r="BY7" s="48"/>
-      <c r="BZ7" s="49"/>
-      <c r="CA7" s="47" t="s">
+      <c r="BW7" s="47"/>
+      <c r="BX7" s="47"/>
+      <c r="BY7" s="47"/>
+      <c r="BZ7" s="48"/>
+      <c r="CA7" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="CB7" s="48"/>
-      <c r="CC7" s="48"/>
-      <c r="CD7" s="48"/>
-      <c r="CE7" s="49"/>
-      <c r="CF7" s="47" t="s">
+      <c r="CB7" s="47"/>
+      <c r="CC7" s="47"/>
+      <c r="CD7" s="47"/>
+      <c r="CE7" s="48"/>
+      <c r="CF7" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="CG7" s="48"/>
-      <c r="CH7" s="48"/>
-      <c r="CI7" s="48"/>
-      <c r="CJ7" s="49"/>
-      <c r="CK7" s="47" t="s">
+      <c r="CG7" s="47"/>
+      <c r="CH7" s="47"/>
+      <c r="CI7" s="47"/>
+      <c r="CJ7" s="48"/>
+      <c r="CK7" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="CL7" s="48"/>
-      <c r="CM7" s="48"/>
-      <c r="CN7" s="48"/>
-      <c r="CO7" s="49"/>
+      <c r="CL7" s="47"/>
+      <c r="CM7" s="47"/>
+      <c r="CN7" s="47"/>
+      <c r="CO7" s="48"/>
     </row>
     <row r="8" spans="1:93" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -2736,9 +2760,7 @@
     </row>
     <row r="20" spans="1:93" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
-      <c r="B20" s="33" t="s">
-        <v>35</v>
-      </c>
+      <c r="B20" s="33"/>
       <c r="C20" s="34" t="s">
         <v>36</v>
       </c>
@@ -3833,1525 +3855,1605 @@
       <c r="CN30" s="25"/>
       <c r="CO30" s="25"/>
     </row>
-    <row r="31" spans="1:93" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:93" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="4"/>
-      <c r="Z31" s="4"/>
-      <c r="AA31" s="4"/>
-      <c r="AB31" s="4"/>
-      <c r="AC31" s="4"/>
-      <c r="AD31" s="4"/>
-      <c r="AE31" s="4"/>
-      <c r="AF31" s="4"/>
-      <c r="AG31" s="4"/>
-      <c r="AH31" s="4"/>
-      <c r="AI31" s="4"/>
-      <c r="AJ31" s="4"/>
-      <c r="AK31" s="4"/>
-      <c r="AL31" s="4"/>
-      <c r="AM31" s="4"/>
-      <c r="AN31" s="4"/>
-      <c r="AO31" s="4"/>
-      <c r="AP31" s="4"/>
-      <c r="AQ31" s="4"/>
-      <c r="AR31" s="4"/>
-      <c r="AS31" s="4"/>
-      <c r="AT31" s="4"/>
-      <c r="AU31" s="4"/>
-      <c r="AV31" s="4"/>
-      <c r="AW31" s="4"/>
-      <c r="AX31" s="4"/>
-      <c r="AY31" s="4"/>
-      <c r="AZ31" s="4"/>
-      <c r="BA31" s="4"/>
-      <c r="BB31" s="4"/>
-      <c r="BC31" s="4"/>
-      <c r="BD31" s="4"/>
-      <c r="BE31" s="4"/>
-      <c r="BF31" s="4"/>
-      <c r="BG31" s="4"/>
-      <c r="BH31" s="4"/>
-      <c r="BI31" s="4"/>
-      <c r="BJ31" s="4"/>
-      <c r="BK31" s="4"/>
-      <c r="BL31" s="4"/>
-      <c r="BM31" s="4"/>
-      <c r="BN31" s="4"/>
-      <c r="BO31" s="4"/>
-      <c r="BP31" s="4"/>
-      <c r="BQ31" s="4"/>
-      <c r="BR31" s="4"/>
-      <c r="BS31" s="4"/>
-      <c r="BT31" s="4"/>
-      <c r="BU31" s="4"/>
-      <c r="BV31" s="4"/>
-      <c r="BW31" s="4"/>
-      <c r="BX31" s="4"/>
-      <c r="BY31" s="4"/>
-      <c r="BZ31" s="4"/>
-      <c r="CA31" s="4"/>
-      <c r="CB31" s="4"/>
-      <c r="CC31" s="4"/>
-      <c r="CD31" s="4"/>
-      <c r="CE31" s="4"/>
-      <c r="CF31" s="4"/>
-      <c r="CG31" s="4"/>
-      <c r="CH31" s="4"/>
-      <c r="CI31" s="4"/>
-      <c r="CJ31" s="4"/>
-      <c r="CK31" s="4"/>
-      <c r="CL31" s="4"/>
-      <c r="CM31" s="4"/>
-      <c r="CN31" s="4"/>
-      <c r="CO31" s="4"/>
+      <c r="B31" s="42">
+        <v>12</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="29">
+        <v>0</v>
+      </c>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="27"/>
+      <c r="W31" s="27"/>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="27"/>
+      <c r="Z31" s="27"/>
+      <c r="AA31" s="27"/>
+      <c r="AB31" s="27"/>
+      <c r="AC31" s="27"/>
+      <c r="AD31" s="27"/>
+      <c r="AE31" s="27"/>
+      <c r="AF31" s="27"/>
+      <c r="AG31" s="27"/>
+      <c r="AH31" s="27"/>
+      <c r="AI31" s="27"/>
+      <c r="AJ31" s="27"/>
+      <c r="AK31" s="27"/>
+      <c r="AL31" s="27"/>
+      <c r="AM31" s="27"/>
+      <c r="AN31" s="27"/>
+      <c r="AO31" s="27"/>
+      <c r="AP31" s="27"/>
+      <c r="AQ31" s="27"/>
+      <c r="AR31" s="27"/>
+      <c r="AS31" s="27"/>
+      <c r="AT31" s="27"/>
+      <c r="AU31" s="27"/>
+      <c r="AV31" s="27"/>
+      <c r="AW31" s="27"/>
+      <c r="AX31" s="27"/>
+      <c r="AY31" s="27"/>
+      <c r="AZ31" s="27"/>
+      <c r="BA31" s="27"/>
+      <c r="BB31" s="27"/>
+      <c r="BC31" s="27"/>
+      <c r="BD31" s="27"/>
+      <c r="BE31" s="27"/>
+      <c r="BF31" s="27"/>
+      <c r="BG31" s="27"/>
+      <c r="BH31" s="27"/>
+      <c r="BI31" s="27"/>
+      <c r="BJ31" s="27"/>
+      <c r="BK31" s="27"/>
+      <c r="BL31" s="27"/>
+      <c r="BM31" s="27"/>
+      <c r="BN31" s="27"/>
+      <c r="BO31" s="27"/>
+      <c r="BP31" s="27"/>
+      <c r="BQ31" s="27"/>
+      <c r="BR31" s="27"/>
+      <c r="BS31" s="27"/>
+      <c r="BT31" s="27"/>
+      <c r="BU31" s="32"/>
+      <c r="BV31" s="25"/>
+      <c r="BW31" s="25"/>
+      <c r="BX31" s="25"/>
+      <c r="BY31" s="25"/>
+      <c r="BZ31" s="25"/>
+      <c r="CA31" s="25"/>
+      <c r="CB31" s="25"/>
+      <c r="CC31" s="25"/>
+      <c r="CD31" s="25"/>
+      <c r="CE31" s="25"/>
+      <c r="CF31" s="25"/>
+      <c r="CG31" s="25"/>
+      <c r="CH31" s="25"/>
+      <c r="CI31" s="25"/>
+      <c r="CJ31" s="25"/>
+      <c r="CK31" s="25"/>
+      <c r="CL31" s="25"/>
+      <c r="CM31" s="25"/>
+      <c r="CN31" s="25"/>
+      <c r="CO31" s="25"/>
     </row>
-    <row r="32" spans="1:93" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:93" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-      <c r="Z32" s="4"/>
-      <c r="AA32" s="4"/>
-      <c r="AB32" s="4"/>
-      <c r="AC32" s="4"/>
-      <c r="AD32" s="4"/>
-      <c r="AE32" s="4"/>
-      <c r="AF32" s="4"/>
-      <c r="AG32" s="4"/>
-      <c r="AH32" s="4"/>
-      <c r="AI32" s="4"/>
-      <c r="AJ32" s="4"/>
-      <c r="AK32" s="4"/>
-      <c r="AL32" s="4"/>
-      <c r="AM32" s="4"/>
-      <c r="AN32" s="4"/>
-      <c r="AO32" s="4"/>
-      <c r="AP32" s="4"/>
-      <c r="AQ32" s="4"/>
-      <c r="AR32" s="4"/>
-      <c r="AS32" s="4"/>
-      <c r="AT32" s="4"/>
-      <c r="AU32" s="4"/>
-      <c r="AV32" s="4"/>
-      <c r="AW32" s="4"/>
-      <c r="AX32" s="4"/>
-      <c r="AY32" s="4"/>
-      <c r="AZ32" s="4"/>
-      <c r="BA32" s="4"/>
-      <c r="BB32" s="4"/>
-      <c r="BC32" s="4"/>
-      <c r="BD32" s="4"/>
-      <c r="BE32" s="4"/>
-      <c r="BF32" s="4"/>
-      <c r="BG32" s="4"/>
-      <c r="BH32" s="4"/>
-      <c r="BI32" s="4"/>
-      <c r="BJ32" s="4"/>
-      <c r="BK32" s="4"/>
-      <c r="BL32" s="4"/>
-      <c r="BM32" s="4"/>
-      <c r="BN32" s="4"/>
-      <c r="BO32" s="4"/>
-      <c r="BP32" s="4"/>
-      <c r="BQ32" s="4"/>
-      <c r="BR32" s="4"/>
-      <c r="BS32" s="4"/>
-      <c r="BT32" s="4"/>
-      <c r="BU32" s="4"/>
-      <c r="BV32" s="4"/>
-      <c r="BW32" s="4"/>
-      <c r="BX32" s="4"/>
-      <c r="BY32" s="4"/>
-      <c r="BZ32" s="4"/>
-      <c r="CA32" s="4"/>
-      <c r="CB32" s="4"/>
-      <c r="CC32" s="4"/>
-      <c r="CD32" s="4"/>
-      <c r="CE32" s="4"/>
-      <c r="CF32" s="4"/>
-      <c r="CG32" s="4"/>
-      <c r="CH32" s="4"/>
-      <c r="CI32" s="4"/>
-      <c r="CJ32" s="4"/>
-      <c r="CK32" s="4"/>
-      <c r="CL32" s="4"/>
-      <c r="CM32" s="4"/>
-      <c r="CN32" s="4"/>
-      <c r="CO32" s="4"/>
+      <c r="B32" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="37"/>
+      <c r="T32" s="37"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="37"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="37"/>
+      <c r="Y32" s="37"/>
+      <c r="Z32" s="37"/>
+      <c r="AA32" s="37"/>
+      <c r="AB32" s="37"/>
+      <c r="AC32" s="37"/>
+      <c r="AD32" s="37"/>
+      <c r="AE32" s="37"/>
+      <c r="AF32" s="37"/>
+      <c r="AG32" s="37"/>
+      <c r="AH32" s="37"/>
+      <c r="AI32" s="37"/>
+      <c r="AJ32" s="37"/>
+      <c r="AK32" s="37"/>
+      <c r="AL32" s="37"/>
+      <c r="AM32" s="37"/>
+      <c r="AN32" s="37"/>
+      <c r="AO32" s="37"/>
+      <c r="AP32" s="37"/>
+      <c r="AQ32" s="37"/>
+      <c r="AR32" s="37"/>
+      <c r="AS32" s="37"/>
+      <c r="AT32" s="37"/>
+      <c r="AU32" s="37"/>
+      <c r="AV32" s="37"/>
+      <c r="AW32" s="37"/>
+      <c r="AX32" s="37"/>
+      <c r="AY32" s="37"/>
+      <c r="AZ32" s="37"/>
+      <c r="BA32" s="37"/>
+      <c r="BB32" s="37"/>
+      <c r="BC32" s="37"/>
+      <c r="BD32" s="37"/>
+      <c r="BE32" s="37"/>
+      <c r="BF32" s="37"/>
+      <c r="BG32" s="37"/>
+      <c r="BH32" s="37"/>
+      <c r="BI32" s="37"/>
+      <c r="BJ32" s="37"/>
+      <c r="BK32" s="37"/>
+      <c r="BL32" s="37"/>
+      <c r="BM32" s="37"/>
+      <c r="BN32" s="37"/>
+      <c r="BO32" s="37"/>
+      <c r="BP32" s="37"/>
+      <c r="BQ32" s="37"/>
+      <c r="BR32" s="37"/>
+      <c r="BS32" s="37"/>
+      <c r="BT32" s="37"/>
+      <c r="BU32" s="38"/>
+      <c r="BV32" s="25"/>
+      <c r="BW32" s="25"/>
+      <c r="BX32" s="25"/>
+      <c r="BY32" s="25"/>
+      <c r="BZ32" s="25"/>
+      <c r="CA32" s="25"/>
+      <c r="CB32" s="25"/>
+      <c r="CC32" s="25"/>
+      <c r="CD32" s="25"/>
+      <c r="CE32" s="25"/>
+      <c r="CF32" s="25"/>
+      <c r="CG32" s="25"/>
+      <c r="CH32" s="25"/>
+      <c r="CI32" s="25"/>
+      <c r="CJ32" s="25"/>
+      <c r="CK32" s="25"/>
+      <c r="CL32" s="25"/>
+      <c r="CM32" s="25"/>
+      <c r="CN32" s="25"/>
+      <c r="CO32" s="25"/>
     </row>
-    <row r="33" spans="1:93" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:93" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-      <c r="Z33" s="4"/>
-      <c r="AA33" s="4"/>
-      <c r="AB33" s="4"/>
-      <c r="AC33" s="4"/>
-      <c r="AD33" s="4"/>
-      <c r="AE33" s="4"/>
-      <c r="AF33" s="4"/>
-      <c r="AG33" s="4"/>
-      <c r="AH33" s="4"/>
-      <c r="AI33" s="4"/>
-      <c r="AJ33" s="4"/>
-      <c r="AK33" s="4"/>
-      <c r="AL33" s="4"/>
-      <c r="AM33" s="4"/>
-      <c r="AN33" s="4"/>
-      <c r="AO33" s="4"/>
-      <c r="AP33" s="4"/>
-      <c r="AQ33" s="4"/>
-      <c r="AR33" s="4"/>
-      <c r="AS33" s="4"/>
-      <c r="AT33" s="4"/>
-      <c r="AU33" s="4"/>
-      <c r="AV33" s="4"/>
-      <c r="AW33" s="4"/>
-      <c r="AX33" s="4"/>
-      <c r="AY33" s="4"/>
-      <c r="AZ33" s="4"/>
-      <c r="BA33" s="4"/>
-      <c r="BB33" s="4"/>
-      <c r="BC33" s="4"/>
-      <c r="BD33" s="4"/>
-      <c r="BE33" s="4"/>
-      <c r="BF33" s="4"/>
-      <c r="BG33" s="4"/>
-      <c r="BH33" s="4"/>
-      <c r="BI33" s="4"/>
-      <c r="BJ33" s="4"/>
-      <c r="BK33" s="4"/>
-      <c r="BL33" s="4"/>
-      <c r="BM33" s="4"/>
-      <c r="BN33" s="4"/>
-      <c r="BO33" s="4"/>
-      <c r="BP33" s="4"/>
-      <c r="BQ33" s="4"/>
-      <c r="BR33" s="4"/>
-      <c r="BS33" s="4"/>
-      <c r="BT33" s="4"/>
-      <c r="BU33" s="4"/>
-      <c r="BV33" s="4"/>
-      <c r="BW33" s="4"/>
-      <c r="BX33" s="4"/>
-      <c r="BY33" s="4"/>
-      <c r="BZ33" s="4"/>
-      <c r="CA33" s="4"/>
-      <c r="CB33" s="4"/>
-      <c r="CC33" s="4"/>
-      <c r="CD33" s="4"/>
-      <c r="CE33" s="4"/>
-      <c r="CF33" s="4"/>
-      <c r="CG33" s="4"/>
-      <c r="CH33" s="4"/>
-      <c r="CI33" s="4"/>
-      <c r="CJ33" s="4"/>
-      <c r="CK33" s="4"/>
-      <c r="CL33" s="4"/>
-      <c r="CM33" s="4"/>
-      <c r="CN33" s="4"/>
-      <c r="CO33" s="4"/>
+      <c r="B33" s="42">
+        <v>13</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="29">
+        <v>0</v>
+      </c>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="27"/>
+      <c r="T33" s="27"/>
+      <c r="U33" s="27"/>
+      <c r="V33" s="27"/>
+      <c r="W33" s="27"/>
+      <c r="X33" s="27"/>
+      <c r="Y33" s="27"/>
+      <c r="Z33" s="27"/>
+      <c r="AA33" s="27"/>
+      <c r="AB33" s="27"/>
+      <c r="AC33" s="27"/>
+      <c r="AD33" s="27"/>
+      <c r="AE33" s="27"/>
+      <c r="AF33" s="27"/>
+      <c r="AG33" s="27"/>
+      <c r="AH33" s="27"/>
+      <c r="AI33" s="27"/>
+      <c r="AJ33" s="27"/>
+      <c r="AK33" s="27"/>
+      <c r="AL33" s="27"/>
+      <c r="AM33" s="27"/>
+      <c r="AN33" s="27"/>
+      <c r="AO33" s="27"/>
+      <c r="AP33" s="27"/>
+      <c r="AQ33" s="27"/>
+      <c r="AR33" s="27"/>
+      <c r="AS33" s="27"/>
+      <c r="AT33" s="27"/>
+      <c r="AU33" s="27"/>
+      <c r="AV33" s="27"/>
+      <c r="AW33" s="27"/>
+      <c r="AX33" s="27"/>
+      <c r="AY33" s="27"/>
+      <c r="AZ33" s="27"/>
+      <c r="BA33" s="27"/>
+      <c r="BB33" s="27"/>
+      <c r="BC33" s="27"/>
+      <c r="BD33" s="27"/>
+      <c r="BE33" s="27"/>
+      <c r="BF33" s="27"/>
+      <c r="BG33" s="27"/>
+      <c r="BH33" s="27"/>
+      <c r="BI33" s="27"/>
+      <c r="BJ33" s="27"/>
+      <c r="BK33" s="27"/>
+      <c r="BL33" s="27"/>
+      <c r="BM33" s="27"/>
+      <c r="BN33" s="27"/>
+      <c r="BO33" s="27"/>
+      <c r="BP33" s="27"/>
+      <c r="BQ33" s="27"/>
+      <c r="BR33" s="27"/>
+      <c r="BS33" s="27"/>
+      <c r="BT33" s="27"/>
+      <c r="BU33" s="32"/>
+      <c r="BV33" s="25"/>
+      <c r="BW33" s="25"/>
+      <c r="BX33" s="25"/>
+      <c r="BY33" s="25"/>
+      <c r="BZ33" s="25"/>
+      <c r="CA33" s="25"/>
+      <c r="CB33" s="25"/>
+      <c r="CC33" s="25"/>
+      <c r="CD33" s="25"/>
+      <c r="CE33" s="25"/>
+      <c r="CF33" s="25"/>
+      <c r="CG33" s="25"/>
+      <c r="CH33" s="25"/>
+      <c r="CI33" s="25"/>
+      <c r="CJ33" s="25"/>
+      <c r="CK33" s="25"/>
+      <c r="CL33" s="25"/>
+      <c r="CM33" s="25"/>
+      <c r="CN33" s="25"/>
+      <c r="CO33" s="25"/>
     </row>
-    <row r="34" spans="1:93" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:93" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
-      <c r="Z34" s="4"/>
-      <c r="AA34" s="4"/>
-      <c r="AB34" s="4"/>
-      <c r="AC34" s="4"/>
-      <c r="AD34" s="4"/>
-      <c r="AE34" s="4"/>
-      <c r="AF34" s="4"/>
-      <c r="AG34" s="4"/>
-      <c r="AH34" s="4"/>
-      <c r="AI34" s="4"/>
-      <c r="AJ34" s="4"/>
-      <c r="AK34" s="4"/>
-      <c r="AL34" s="4"/>
-      <c r="AM34" s="4"/>
-      <c r="AN34" s="4"/>
-      <c r="AO34" s="4"/>
-      <c r="AP34" s="4"/>
-      <c r="AQ34" s="4"/>
-      <c r="AR34" s="4"/>
-      <c r="AS34" s="4"/>
-      <c r="AT34" s="4"/>
-      <c r="AU34" s="4"/>
-      <c r="AV34" s="4"/>
-      <c r="AW34" s="4"/>
-      <c r="AX34" s="4"/>
-      <c r="AY34" s="4"/>
-      <c r="AZ34" s="4"/>
-      <c r="BA34" s="4"/>
-      <c r="BB34" s="4"/>
-      <c r="BC34" s="4"/>
-      <c r="BD34" s="4"/>
-      <c r="BE34" s="4"/>
-      <c r="BF34" s="4"/>
-      <c r="BG34" s="4"/>
-      <c r="BH34" s="4"/>
-      <c r="BI34" s="4"/>
-      <c r="BJ34" s="4"/>
-      <c r="BK34" s="4"/>
-      <c r="BL34" s="4"/>
-      <c r="BM34" s="4"/>
-      <c r="BN34" s="4"/>
-      <c r="BO34" s="4"/>
-      <c r="BP34" s="4"/>
-      <c r="BQ34" s="4"/>
-      <c r="BR34" s="4"/>
-      <c r="BS34" s="4"/>
-      <c r="BT34" s="4"/>
-      <c r="BU34" s="4"/>
-      <c r="BV34" s="4"/>
-      <c r="BW34" s="4"/>
-      <c r="BX34" s="4"/>
-      <c r="BY34" s="4"/>
-      <c r="BZ34" s="4"/>
-      <c r="CA34" s="4"/>
-      <c r="CB34" s="4"/>
-      <c r="CC34" s="4"/>
-      <c r="CD34" s="4"/>
-      <c r="CE34" s="4"/>
-      <c r="CF34" s="4"/>
-      <c r="CG34" s="4"/>
-      <c r="CH34" s="4"/>
-      <c r="CI34" s="4"/>
-      <c r="CJ34" s="4"/>
-      <c r="CK34" s="4"/>
-      <c r="CL34" s="4"/>
-      <c r="CM34" s="4"/>
-      <c r="CN34" s="4"/>
-      <c r="CO34" s="4"/>
+      <c r="B34" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="37"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="37"/>
+      <c r="U34" s="37"/>
+      <c r="V34" s="37"/>
+      <c r="W34" s="37"/>
+      <c r="X34" s="37"/>
+      <c r="Y34" s="37"/>
+      <c r="Z34" s="37"/>
+      <c r="AA34" s="37"/>
+      <c r="AB34" s="37"/>
+      <c r="AC34" s="37"/>
+      <c r="AD34" s="37"/>
+      <c r="AE34" s="37"/>
+      <c r="AF34" s="37"/>
+      <c r="AG34" s="37"/>
+      <c r="AH34" s="37"/>
+      <c r="AI34" s="37"/>
+      <c r="AJ34" s="37"/>
+      <c r="AK34" s="37"/>
+      <c r="AL34" s="37"/>
+      <c r="AM34" s="37"/>
+      <c r="AN34" s="37"/>
+      <c r="AO34" s="37"/>
+      <c r="AP34" s="37"/>
+      <c r="AQ34" s="37"/>
+      <c r="AR34" s="37"/>
+      <c r="AS34" s="37"/>
+      <c r="AT34" s="37"/>
+      <c r="AU34" s="37"/>
+      <c r="AV34" s="37"/>
+      <c r="AW34" s="37"/>
+      <c r="AX34" s="37"/>
+      <c r="AY34" s="37"/>
+      <c r="AZ34" s="37"/>
+      <c r="BA34" s="37"/>
+      <c r="BB34" s="37"/>
+      <c r="BC34" s="37"/>
+      <c r="BD34" s="37"/>
+      <c r="BE34" s="37"/>
+      <c r="BF34" s="37"/>
+      <c r="BG34" s="37"/>
+      <c r="BH34" s="37"/>
+      <c r="BI34" s="37"/>
+      <c r="BJ34" s="37"/>
+      <c r="BK34" s="37"/>
+      <c r="BL34" s="37"/>
+      <c r="BM34" s="37"/>
+      <c r="BN34" s="37"/>
+      <c r="BO34" s="37"/>
+      <c r="BP34" s="37"/>
+      <c r="BQ34" s="37"/>
+      <c r="BR34" s="37"/>
+      <c r="BS34" s="37"/>
+      <c r="BT34" s="37"/>
+      <c r="BU34" s="38"/>
+      <c r="BV34" s="25"/>
+      <c r="BW34" s="25"/>
+      <c r="BX34" s="25"/>
+      <c r="BY34" s="25"/>
+      <c r="BZ34" s="25"/>
+      <c r="CA34" s="25"/>
+      <c r="CB34" s="25"/>
+      <c r="CC34" s="25"/>
+      <c r="CD34" s="25"/>
+      <c r="CE34" s="25"/>
+      <c r="CF34" s="25"/>
+      <c r="CG34" s="25"/>
+      <c r="CH34" s="25"/>
+      <c r="CI34" s="25"/>
+      <c r="CJ34" s="25"/>
+      <c r="CK34" s="25"/>
+      <c r="CL34" s="25"/>
+      <c r="CM34" s="25"/>
+      <c r="CN34" s="25"/>
+      <c r="CO34" s="25"/>
     </row>
-    <row r="35" spans="1:93" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:93" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="4"/>
-      <c r="Z35" s="4"/>
-      <c r="AA35" s="4"/>
-      <c r="AB35" s="4"/>
-      <c r="AC35" s="4"/>
-      <c r="AD35" s="4"/>
-      <c r="AE35" s="4"/>
-      <c r="AF35" s="4"/>
-      <c r="AG35" s="4"/>
-      <c r="AH35" s="4"/>
-      <c r="AI35" s="4"/>
-      <c r="AJ35" s="4"/>
-      <c r="AK35" s="4"/>
-      <c r="AL35" s="4"/>
-      <c r="AM35" s="4"/>
-      <c r="AN35" s="4"/>
-      <c r="AO35" s="4"/>
-      <c r="AP35" s="4"/>
-      <c r="AQ35" s="4"/>
-      <c r="AR35" s="4"/>
-      <c r="AS35" s="4"/>
-      <c r="AT35" s="4"/>
-      <c r="AU35" s="4"/>
-      <c r="AV35" s="4"/>
-      <c r="AW35" s="4"/>
-      <c r="AX35" s="4"/>
-      <c r="AY35" s="4"/>
-      <c r="AZ35" s="4"/>
-      <c r="BA35" s="4"/>
-      <c r="BB35" s="4"/>
-      <c r="BC35" s="4"/>
-      <c r="BD35" s="4"/>
-      <c r="BE35" s="4"/>
-      <c r="BF35" s="4"/>
-      <c r="BG35" s="4"/>
-      <c r="BH35" s="4"/>
-      <c r="BI35" s="4"/>
-      <c r="BJ35" s="4"/>
-      <c r="BK35" s="4"/>
-      <c r="BL35" s="4"/>
-      <c r="BM35" s="4"/>
-      <c r="BN35" s="4"/>
-      <c r="BO35" s="4"/>
-      <c r="BP35" s="4"/>
-      <c r="BQ35" s="4"/>
-      <c r="BR35" s="4"/>
-      <c r="BS35" s="4"/>
-      <c r="BT35" s="4"/>
-      <c r="BU35" s="4"/>
-      <c r="BV35" s="4"/>
-      <c r="BW35" s="4"/>
-      <c r="BX35" s="4"/>
-      <c r="BY35" s="4"/>
-      <c r="BZ35" s="4"/>
-      <c r="CA35" s="4"/>
-      <c r="CB35" s="4"/>
-      <c r="CC35" s="4"/>
-      <c r="CD35" s="4"/>
-      <c r="CE35" s="4"/>
-      <c r="CF35" s="4"/>
-      <c r="CG35" s="4"/>
-      <c r="CH35" s="4"/>
-      <c r="CI35" s="4"/>
-      <c r="CJ35" s="4"/>
-      <c r="CK35" s="4"/>
-      <c r="CL35" s="4"/>
-      <c r="CM35" s="4"/>
-      <c r="CN35" s="4"/>
-      <c r="CO35" s="4"/>
+      <c r="B35" s="42">
+        <v>14</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="29">
+        <v>0</v>
+      </c>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="27"/>
+      <c r="U35" s="27"/>
+      <c r="V35" s="27"/>
+      <c r="W35" s="27"/>
+      <c r="X35" s="27"/>
+      <c r="Y35" s="27"/>
+      <c r="Z35" s="27"/>
+      <c r="AA35" s="27"/>
+      <c r="AB35" s="27"/>
+      <c r="AC35" s="27"/>
+      <c r="AD35" s="27"/>
+      <c r="AE35" s="27"/>
+      <c r="AF35" s="27"/>
+      <c r="AG35" s="27"/>
+      <c r="AH35" s="27"/>
+      <c r="AI35" s="27"/>
+      <c r="AJ35" s="27"/>
+      <c r="AK35" s="27"/>
+      <c r="AL35" s="27"/>
+      <c r="AM35" s="27"/>
+      <c r="AN35" s="27"/>
+      <c r="AO35" s="27"/>
+      <c r="AP35" s="27"/>
+      <c r="AQ35" s="27"/>
+      <c r="AR35" s="27"/>
+      <c r="AS35" s="27"/>
+      <c r="AT35" s="27"/>
+      <c r="AU35" s="27"/>
+      <c r="AV35" s="27"/>
+      <c r="AW35" s="27"/>
+      <c r="AX35" s="27"/>
+      <c r="AY35" s="27"/>
+      <c r="AZ35" s="27"/>
+      <c r="BA35" s="27"/>
+      <c r="BB35" s="27"/>
+      <c r="BC35" s="27"/>
+      <c r="BD35" s="27"/>
+      <c r="BE35" s="27"/>
+      <c r="BF35" s="27"/>
+      <c r="BG35" s="27"/>
+      <c r="BH35" s="27"/>
+      <c r="BI35" s="27"/>
+      <c r="BJ35" s="27"/>
+      <c r="BK35" s="27"/>
+      <c r="BL35" s="27"/>
+      <c r="BM35" s="27"/>
+      <c r="BN35" s="27"/>
+      <c r="BO35" s="27"/>
+      <c r="BP35" s="27"/>
+      <c r="BQ35" s="27"/>
+      <c r="BR35" s="27"/>
+      <c r="BS35" s="27"/>
+      <c r="BT35" s="27"/>
+      <c r="BU35" s="32"/>
+      <c r="BV35" s="25"/>
+      <c r="BW35" s="25"/>
+      <c r="BX35" s="25"/>
+      <c r="BY35" s="25"/>
+      <c r="BZ35" s="25"/>
+      <c r="CA35" s="25"/>
+      <c r="CB35" s="25"/>
+      <c r="CC35" s="25"/>
+      <c r="CD35" s="25"/>
+      <c r="CE35" s="25"/>
+      <c r="CF35" s="25"/>
+      <c r="CG35" s="25"/>
+      <c r="CH35" s="25"/>
+      <c r="CI35" s="25"/>
+      <c r="CJ35" s="25"/>
+      <c r="CK35" s="25"/>
+      <c r="CL35" s="25"/>
+      <c r="CM35" s="25"/>
+      <c r="CN35" s="25"/>
+      <c r="CO35" s="25"/>
     </row>
-    <row r="36" spans="1:93" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:93" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
-      <c r="Z36" s="4"/>
-      <c r="AA36" s="4"/>
-      <c r="AB36" s="4"/>
-      <c r="AC36" s="4"/>
-      <c r="AD36" s="4"/>
-      <c r="AE36" s="4"/>
-      <c r="AF36" s="4"/>
-      <c r="AG36" s="4"/>
-      <c r="AH36" s="4"/>
-      <c r="AI36" s="4"/>
-      <c r="AJ36" s="4"/>
-      <c r="AK36" s="4"/>
-      <c r="AL36" s="4"/>
-      <c r="AM36" s="4"/>
-      <c r="AN36" s="4"/>
-      <c r="AO36" s="4"/>
-      <c r="AP36" s="4"/>
-      <c r="AQ36" s="4"/>
-      <c r="AR36" s="4"/>
-      <c r="AS36" s="4"/>
-      <c r="AT36" s="4"/>
-      <c r="AU36" s="4"/>
-      <c r="AV36" s="4"/>
-      <c r="AW36" s="4"/>
-      <c r="AX36" s="4"/>
-      <c r="AY36" s="4"/>
-      <c r="AZ36" s="4"/>
-      <c r="BA36" s="4"/>
-      <c r="BB36" s="4"/>
-      <c r="BC36" s="4"/>
-      <c r="BD36" s="4"/>
-      <c r="BE36" s="4"/>
-      <c r="BF36" s="4"/>
-      <c r="BG36" s="4"/>
-      <c r="BH36" s="4"/>
-      <c r="BI36" s="4"/>
-      <c r="BJ36" s="4"/>
-      <c r="BK36" s="4"/>
-      <c r="BL36" s="4"/>
-      <c r="BM36" s="4"/>
-      <c r="BN36" s="4"/>
-      <c r="BO36" s="4"/>
-      <c r="BP36" s="4"/>
-      <c r="BQ36" s="4"/>
-      <c r="BR36" s="4"/>
-      <c r="BS36" s="4"/>
-      <c r="BT36" s="4"/>
-      <c r="BU36" s="4"/>
-      <c r="BV36" s="4"/>
-      <c r="BW36" s="4"/>
-      <c r="BX36" s="4"/>
-      <c r="BY36" s="4"/>
-      <c r="BZ36" s="4"/>
-      <c r="CA36" s="4"/>
-      <c r="CB36" s="4"/>
-      <c r="CC36" s="4"/>
-      <c r="CD36" s="4"/>
-      <c r="CE36" s="4"/>
-      <c r="CF36" s="4"/>
-      <c r="CG36" s="4"/>
-      <c r="CH36" s="4"/>
-      <c r="CI36" s="4"/>
-      <c r="CJ36" s="4"/>
-      <c r="CK36" s="4"/>
-      <c r="CL36" s="4"/>
-      <c r="CM36" s="4"/>
-      <c r="CN36" s="4"/>
-      <c r="CO36" s="4"/>
+      <c r="B36" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="37"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="37"/>
+      <c r="Y36" s="37"/>
+      <c r="Z36" s="37"/>
+      <c r="AA36" s="37"/>
+      <c r="AB36" s="37"/>
+      <c r="AC36" s="37"/>
+      <c r="AD36" s="37"/>
+      <c r="AE36" s="37"/>
+      <c r="AF36" s="37"/>
+      <c r="AG36" s="37"/>
+      <c r="AH36" s="37"/>
+      <c r="AI36" s="37"/>
+      <c r="AJ36" s="37"/>
+      <c r="AK36" s="37"/>
+      <c r="AL36" s="37"/>
+      <c r="AM36" s="37"/>
+      <c r="AN36" s="37"/>
+      <c r="AO36" s="37"/>
+      <c r="AP36" s="37"/>
+      <c r="AQ36" s="37"/>
+      <c r="AR36" s="37"/>
+      <c r="AS36" s="37"/>
+      <c r="AT36" s="37"/>
+      <c r="AU36" s="37"/>
+      <c r="AV36" s="37"/>
+      <c r="AW36" s="37"/>
+      <c r="AX36" s="37"/>
+      <c r="AY36" s="37"/>
+      <c r="AZ36" s="37"/>
+      <c r="BA36" s="37"/>
+      <c r="BB36" s="37"/>
+      <c r="BC36" s="37"/>
+      <c r="BD36" s="37"/>
+      <c r="BE36" s="37"/>
+      <c r="BF36" s="37"/>
+      <c r="BG36" s="37"/>
+      <c r="BH36" s="37"/>
+      <c r="BI36" s="37"/>
+      <c r="BJ36" s="37"/>
+      <c r="BK36" s="37"/>
+      <c r="BL36" s="37"/>
+      <c r="BM36" s="37"/>
+      <c r="BN36" s="37"/>
+      <c r="BO36" s="37"/>
+      <c r="BP36" s="37"/>
+      <c r="BQ36" s="37"/>
+      <c r="BR36" s="37"/>
+      <c r="BS36" s="37"/>
+      <c r="BT36" s="37"/>
+      <c r="BU36" s="38"/>
+      <c r="BV36" s="25"/>
+      <c r="BW36" s="25"/>
+      <c r="BX36" s="25"/>
+      <c r="BY36" s="25"/>
+      <c r="BZ36" s="25"/>
+      <c r="CA36" s="25"/>
+      <c r="CB36" s="25"/>
+      <c r="CC36" s="25"/>
+      <c r="CD36" s="25"/>
+      <c r="CE36" s="25"/>
+      <c r="CF36" s="25"/>
+      <c r="CG36" s="25"/>
+      <c r="CH36" s="25"/>
+      <c r="CI36" s="25"/>
+      <c r="CJ36" s="25"/>
+      <c r="CK36" s="25"/>
+      <c r="CL36" s="25"/>
+      <c r="CM36" s="25"/>
+      <c r="CN36" s="25"/>
+      <c r="CO36" s="25"/>
     </row>
-    <row r="37" spans="1:93" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:93" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="4"/>
-      <c r="Z37" s="4"/>
-      <c r="AA37" s="4"/>
-      <c r="AB37" s="4"/>
-      <c r="AC37" s="4"/>
-      <c r="AD37" s="4"/>
-      <c r="AE37" s="4"/>
-      <c r="AF37" s="4"/>
-      <c r="AG37" s="4"/>
-      <c r="AH37" s="4"/>
-      <c r="AI37" s="4"/>
-      <c r="AJ37" s="4"/>
-      <c r="AK37" s="4"/>
-      <c r="AL37" s="4"/>
-      <c r="AM37" s="4"/>
-      <c r="AN37" s="4"/>
-      <c r="AO37" s="4"/>
-      <c r="AP37" s="4"/>
-      <c r="AQ37" s="4"/>
-      <c r="AR37" s="4"/>
-      <c r="AS37" s="4"/>
-      <c r="AT37" s="4"/>
-      <c r="AU37" s="4"/>
-      <c r="AV37" s="4"/>
-      <c r="AW37" s="4"/>
-      <c r="AX37" s="4"/>
-      <c r="AY37" s="4"/>
-      <c r="AZ37" s="4"/>
-      <c r="BA37" s="4"/>
-      <c r="BB37" s="4"/>
-      <c r="BC37" s="4"/>
-      <c r="BD37" s="4"/>
-      <c r="BE37" s="4"/>
-      <c r="BF37" s="4"/>
-      <c r="BG37" s="4"/>
-      <c r="BH37" s="4"/>
-      <c r="BI37" s="4"/>
-      <c r="BJ37" s="4"/>
-      <c r="BK37" s="4"/>
-      <c r="BL37" s="4"/>
-      <c r="BM37" s="4"/>
-      <c r="BN37" s="4"/>
-      <c r="BO37" s="4"/>
-      <c r="BP37" s="4"/>
-      <c r="BQ37" s="4"/>
-      <c r="BR37" s="4"/>
-      <c r="BS37" s="4"/>
-      <c r="BT37" s="4"/>
-      <c r="BU37" s="4"/>
-      <c r="BV37" s="4"/>
-      <c r="BW37" s="4"/>
-      <c r="BX37" s="4"/>
-      <c r="BY37" s="4"/>
-      <c r="BZ37" s="4"/>
-      <c r="CA37" s="4"/>
-      <c r="CB37" s="4"/>
-      <c r="CC37" s="4"/>
-      <c r="CD37" s="4"/>
-      <c r="CE37" s="4"/>
-      <c r="CF37" s="4"/>
-      <c r="CG37" s="4"/>
-      <c r="CH37" s="4"/>
-      <c r="CI37" s="4"/>
-      <c r="CJ37" s="4"/>
-      <c r="CK37" s="4"/>
-      <c r="CL37" s="4"/>
-      <c r="CM37" s="4"/>
-      <c r="CN37" s="4"/>
-      <c r="CO37" s="4"/>
+      <c r="B37" s="42">
+        <v>15</v>
+      </c>
+      <c r="C37" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="29">
+        <v>0</v>
+      </c>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="27"/>
+      <c r="T37" s="27"/>
+      <c r="U37" s="27"/>
+      <c r="V37" s="27"/>
+      <c r="W37" s="27"/>
+      <c r="X37" s="27"/>
+      <c r="Y37" s="27"/>
+      <c r="Z37" s="27"/>
+      <c r="AA37" s="27"/>
+      <c r="AB37" s="27"/>
+      <c r="AC37" s="27"/>
+      <c r="AD37" s="27"/>
+      <c r="AE37" s="27"/>
+      <c r="AF37" s="27"/>
+      <c r="AG37" s="27"/>
+      <c r="AH37" s="27"/>
+      <c r="AI37" s="27"/>
+      <c r="AJ37" s="27"/>
+      <c r="AK37" s="27"/>
+      <c r="AL37" s="27"/>
+      <c r="AM37" s="27"/>
+      <c r="AN37" s="27"/>
+      <c r="AO37" s="27"/>
+      <c r="AP37" s="27"/>
+      <c r="AQ37" s="27"/>
+      <c r="AR37" s="27"/>
+      <c r="AS37" s="27"/>
+      <c r="AT37" s="27"/>
+      <c r="AU37" s="27"/>
+      <c r="AV37" s="27"/>
+      <c r="AW37" s="27"/>
+      <c r="AX37" s="27"/>
+      <c r="AY37" s="27"/>
+      <c r="AZ37" s="27"/>
+      <c r="BA37" s="27"/>
+      <c r="BB37" s="27"/>
+      <c r="BC37" s="27"/>
+      <c r="BD37" s="27"/>
+      <c r="BE37" s="27"/>
+      <c r="BF37" s="27"/>
+      <c r="BG37" s="27"/>
+      <c r="BH37" s="27"/>
+      <c r="BI37" s="27"/>
+      <c r="BJ37" s="27"/>
+      <c r="BK37" s="27"/>
+      <c r="BL37" s="27"/>
+      <c r="BM37" s="27"/>
+      <c r="BN37" s="27"/>
+      <c r="BO37" s="27"/>
+      <c r="BP37" s="27"/>
+      <c r="BQ37" s="27"/>
+      <c r="BR37" s="27"/>
+      <c r="BS37" s="27"/>
+      <c r="BT37" s="27"/>
+      <c r="BU37" s="32"/>
+      <c r="BV37" s="25"/>
+      <c r="BW37" s="25"/>
+      <c r="BX37" s="25"/>
+      <c r="BY37" s="25"/>
+      <c r="BZ37" s="25"/>
+      <c r="CA37" s="25"/>
+      <c r="CB37" s="25"/>
+      <c r="CC37" s="25"/>
+      <c r="CD37" s="25"/>
+      <c r="CE37" s="25"/>
+      <c r="CF37" s="25"/>
+      <c r="CG37" s="25"/>
+      <c r="CH37" s="25"/>
+      <c r="CI37" s="25"/>
+      <c r="CJ37" s="25"/>
+      <c r="CK37" s="25"/>
+      <c r="CL37" s="25"/>
+      <c r="CM37" s="25"/>
+      <c r="CN37" s="25"/>
+      <c r="CO37" s="25"/>
     </row>
-    <row r="38" spans="1:93" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:93" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="4"/>
-      <c r="Y38" s="4"/>
-      <c r="Z38" s="4"/>
-      <c r="AA38" s="4"/>
-      <c r="AB38" s="4"/>
-      <c r="AC38" s="4"/>
-      <c r="AD38" s="4"/>
-      <c r="AE38" s="4"/>
-      <c r="AF38" s="4"/>
-      <c r="AG38" s="4"/>
-      <c r="AH38" s="4"/>
-      <c r="AI38" s="4"/>
-      <c r="AJ38" s="4"/>
-      <c r="AK38" s="4"/>
-      <c r="AL38" s="4"/>
-      <c r="AM38" s="4"/>
-      <c r="AN38" s="4"/>
-      <c r="AO38" s="4"/>
-      <c r="AP38" s="4"/>
-      <c r="AQ38" s="4"/>
-      <c r="AR38" s="4"/>
-      <c r="AS38" s="4"/>
-      <c r="AT38" s="4"/>
-      <c r="AU38" s="4"/>
-      <c r="AV38" s="4"/>
-      <c r="AW38" s="4"/>
-      <c r="AX38" s="4"/>
-      <c r="AY38" s="4"/>
-      <c r="AZ38" s="4"/>
-      <c r="BA38" s="4"/>
-      <c r="BB38" s="4"/>
-      <c r="BC38" s="4"/>
-      <c r="BD38" s="4"/>
-      <c r="BE38" s="4"/>
-      <c r="BF38" s="4"/>
-      <c r="BG38" s="4"/>
-      <c r="BH38" s="4"/>
-      <c r="BI38" s="4"/>
-      <c r="BJ38" s="4"/>
-      <c r="BK38" s="4"/>
-      <c r="BL38" s="4"/>
-      <c r="BM38" s="4"/>
-      <c r="BN38" s="4"/>
-      <c r="BO38" s="4"/>
-      <c r="BP38" s="4"/>
-      <c r="BQ38" s="4"/>
-      <c r="BR38" s="4"/>
-      <c r="BS38" s="4"/>
-      <c r="BT38" s="4"/>
-      <c r="BU38" s="4"/>
-      <c r="BV38" s="4"/>
-      <c r="BW38" s="4"/>
-      <c r="BX38" s="4"/>
-      <c r="BY38" s="4"/>
-      <c r="BZ38" s="4"/>
-      <c r="CA38" s="4"/>
-      <c r="CB38" s="4"/>
-      <c r="CC38" s="4"/>
-      <c r="CD38" s="4"/>
-      <c r="CE38" s="4"/>
-      <c r="CF38" s="4"/>
-      <c r="CG38" s="4"/>
-      <c r="CH38" s="4"/>
-      <c r="CI38" s="4"/>
-      <c r="CJ38" s="4"/>
-      <c r="CK38" s="4"/>
-      <c r="CL38" s="4"/>
-      <c r="CM38" s="4"/>
-      <c r="CN38" s="4"/>
-      <c r="CO38" s="4"/>
+      <c r="B38" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="37"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="37"/>
+      <c r="Y38" s="37"/>
+      <c r="Z38" s="37"/>
+      <c r="AA38" s="37"/>
+      <c r="AB38" s="37"/>
+      <c r="AC38" s="37"/>
+      <c r="AD38" s="37"/>
+      <c r="AE38" s="37"/>
+      <c r="AF38" s="37"/>
+      <c r="AG38" s="37"/>
+      <c r="AH38" s="37"/>
+      <c r="AI38" s="37"/>
+      <c r="AJ38" s="37"/>
+      <c r="AK38" s="37"/>
+      <c r="AL38" s="37"/>
+      <c r="AM38" s="37"/>
+      <c r="AN38" s="37"/>
+      <c r="AO38" s="37"/>
+      <c r="AP38" s="37"/>
+      <c r="AQ38" s="37"/>
+      <c r="AR38" s="37"/>
+      <c r="AS38" s="37"/>
+      <c r="AT38" s="37"/>
+      <c r="AU38" s="37"/>
+      <c r="AV38" s="37"/>
+      <c r="AW38" s="37"/>
+      <c r="AX38" s="37"/>
+      <c r="AY38" s="37"/>
+      <c r="AZ38" s="37"/>
+      <c r="BA38" s="37"/>
+      <c r="BB38" s="37"/>
+      <c r="BC38" s="37"/>
+      <c r="BD38" s="37"/>
+      <c r="BE38" s="37"/>
+      <c r="BF38" s="37"/>
+      <c r="BG38" s="37"/>
+      <c r="BH38" s="37"/>
+      <c r="BI38" s="37"/>
+      <c r="BJ38" s="37"/>
+      <c r="BK38" s="37"/>
+      <c r="BL38" s="37"/>
+      <c r="BM38" s="37"/>
+      <c r="BN38" s="37"/>
+      <c r="BO38" s="37"/>
+      <c r="BP38" s="37"/>
+      <c r="BQ38" s="37"/>
+      <c r="BR38" s="37"/>
+      <c r="BS38" s="37"/>
+      <c r="BT38" s="37"/>
+      <c r="BU38" s="38"/>
+      <c r="BV38" s="25"/>
+      <c r="BW38" s="25"/>
+      <c r="BX38" s="25"/>
+      <c r="BY38" s="25"/>
+      <c r="BZ38" s="25"/>
+      <c r="CA38" s="25"/>
+      <c r="CB38" s="25"/>
+      <c r="CC38" s="25"/>
+      <c r="CD38" s="25"/>
+      <c r="CE38" s="25"/>
+      <c r="CF38" s="25"/>
+      <c r="CG38" s="25"/>
+      <c r="CH38" s="25"/>
+      <c r="CI38" s="25"/>
+      <c r="CJ38" s="25"/>
+      <c r="CK38" s="25"/>
+      <c r="CL38" s="25"/>
+      <c r="CM38" s="25"/>
+      <c r="CN38" s="25"/>
+      <c r="CO38" s="25"/>
     </row>
-    <row r="39" spans="1:93" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:93" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="4"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="4"/>
-      <c r="U39" s="4"/>
-      <c r="V39" s="4"/>
-      <c r="W39" s="4"/>
-      <c r="X39" s="4"/>
-      <c r="Y39" s="4"/>
-      <c r="Z39" s="4"/>
-      <c r="AA39" s="4"/>
-      <c r="AB39" s="4"/>
-      <c r="AC39" s="4"/>
-      <c r="AD39" s="4"/>
-      <c r="AE39" s="4"/>
-      <c r="AF39" s="4"/>
-      <c r="AG39" s="4"/>
-      <c r="AH39" s="4"/>
-      <c r="AI39" s="4"/>
-      <c r="AJ39" s="4"/>
-      <c r="AK39" s="4"/>
-      <c r="AL39" s="4"/>
-      <c r="AM39" s="4"/>
-      <c r="AN39" s="4"/>
-      <c r="AO39" s="4"/>
-      <c r="AP39" s="4"/>
-      <c r="AQ39" s="4"/>
-      <c r="AR39" s="4"/>
-      <c r="AS39" s="4"/>
-      <c r="AT39" s="4"/>
-      <c r="AU39" s="4"/>
-      <c r="AV39" s="4"/>
-      <c r="AW39" s="4"/>
-      <c r="AX39" s="4"/>
-      <c r="AY39" s="4"/>
-      <c r="AZ39" s="4"/>
-      <c r="BA39" s="4"/>
-      <c r="BB39" s="4"/>
-      <c r="BC39" s="4"/>
-      <c r="BD39" s="4"/>
-      <c r="BE39" s="4"/>
-      <c r="BF39" s="4"/>
-      <c r="BG39" s="4"/>
-      <c r="BH39" s="4"/>
-      <c r="BI39" s="4"/>
-      <c r="BJ39" s="4"/>
-      <c r="BK39" s="4"/>
-      <c r="BL39" s="4"/>
-      <c r="BM39" s="4"/>
-      <c r="BN39" s="4"/>
-      <c r="BO39" s="4"/>
-      <c r="BP39" s="4"/>
-      <c r="BQ39" s="4"/>
-      <c r="BR39" s="4"/>
-      <c r="BS39" s="4"/>
-      <c r="BT39" s="4"/>
-      <c r="BU39" s="4"/>
-      <c r="BV39" s="4"/>
-      <c r="BW39" s="4"/>
-      <c r="BX39" s="4"/>
-      <c r="BY39" s="4"/>
-      <c r="BZ39" s="4"/>
-      <c r="CA39" s="4"/>
-      <c r="CB39" s="4"/>
-      <c r="CC39" s="4"/>
-      <c r="CD39" s="4"/>
-      <c r="CE39" s="4"/>
-      <c r="CF39" s="4"/>
-      <c r="CG39" s="4"/>
-      <c r="CH39" s="4"/>
-      <c r="CI39" s="4"/>
-      <c r="CJ39" s="4"/>
-      <c r="CK39" s="4"/>
-      <c r="CL39" s="4"/>
-      <c r="CM39" s="4"/>
-      <c r="CN39" s="4"/>
-      <c r="CO39" s="4"/>
+      <c r="B39" s="42">
+        <v>16</v>
+      </c>
+      <c r="C39" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="29">
+        <v>0</v>
+      </c>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="27"/>
+      <c r="T39" s="27"/>
+      <c r="U39" s="27"/>
+      <c r="V39" s="27"/>
+      <c r="W39" s="27"/>
+      <c r="X39" s="27"/>
+      <c r="Y39" s="27"/>
+      <c r="Z39" s="27"/>
+      <c r="AA39" s="27"/>
+      <c r="AB39" s="27"/>
+      <c r="AC39" s="27"/>
+      <c r="AD39" s="27"/>
+      <c r="AE39" s="27"/>
+      <c r="AF39" s="27"/>
+      <c r="AG39" s="27"/>
+      <c r="AH39" s="27"/>
+      <c r="AI39" s="27"/>
+      <c r="AJ39" s="27"/>
+      <c r="AK39" s="27"/>
+      <c r="AL39" s="27"/>
+      <c r="AM39" s="27"/>
+      <c r="AN39" s="27"/>
+      <c r="AO39" s="27"/>
+      <c r="AP39" s="27"/>
+      <c r="AQ39" s="27"/>
+      <c r="AR39" s="27"/>
+      <c r="AS39" s="27"/>
+      <c r="AT39" s="27"/>
+      <c r="AU39" s="27"/>
+      <c r="AV39" s="27"/>
+      <c r="AW39" s="27"/>
+      <c r="AX39" s="27"/>
+      <c r="AY39" s="27"/>
+      <c r="AZ39" s="27"/>
+      <c r="BA39" s="27"/>
+      <c r="BB39" s="27"/>
+      <c r="BC39" s="27"/>
+      <c r="BD39" s="27"/>
+      <c r="BE39" s="27"/>
+      <c r="BF39" s="27"/>
+      <c r="BG39" s="27"/>
+      <c r="BH39" s="27"/>
+      <c r="BI39" s="27"/>
+      <c r="BJ39" s="27"/>
+      <c r="BK39" s="27"/>
+      <c r="BL39" s="27"/>
+      <c r="BM39" s="27"/>
+      <c r="BN39" s="27"/>
+      <c r="BO39" s="27"/>
+      <c r="BP39" s="27"/>
+      <c r="BQ39" s="27"/>
+      <c r="BR39" s="27"/>
+      <c r="BS39" s="27"/>
+      <c r="BT39" s="27"/>
+      <c r="BU39" s="32"/>
+      <c r="BV39" s="25"/>
+      <c r="BW39" s="25"/>
+      <c r="BX39" s="25"/>
+      <c r="BY39" s="25"/>
+      <c r="BZ39" s="25"/>
+      <c r="CA39" s="25"/>
+      <c r="CB39" s="25"/>
+      <c r="CC39" s="25"/>
+      <c r="CD39" s="25"/>
+      <c r="CE39" s="25"/>
+      <c r="CF39" s="25"/>
+      <c r="CG39" s="25"/>
+      <c r="CH39" s="25"/>
+      <c r="CI39" s="25"/>
+      <c r="CJ39" s="25"/>
+      <c r="CK39" s="25"/>
+      <c r="CL39" s="25"/>
+      <c r="CM39" s="25"/>
+      <c r="CN39" s="25"/>
+      <c r="CO39" s="25"/>
     </row>
-    <row r="40" spans="1:93" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:93" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="4"/>
-      <c r="U40" s="4"/>
-      <c r="V40" s="4"/>
-      <c r="W40" s="4"/>
-      <c r="X40" s="4"/>
-      <c r="Y40" s="4"/>
-      <c r="Z40" s="4"/>
-      <c r="AA40" s="4"/>
-      <c r="AB40" s="4"/>
-      <c r="AC40" s="4"/>
-      <c r="AD40" s="4"/>
-      <c r="AE40" s="4"/>
-      <c r="AF40" s="4"/>
-      <c r="AG40" s="4"/>
-      <c r="AH40" s="4"/>
-      <c r="AI40" s="4"/>
-      <c r="AJ40" s="4"/>
-      <c r="AK40" s="4"/>
-      <c r="AL40" s="4"/>
-      <c r="AM40" s="4"/>
-      <c r="AN40" s="4"/>
-      <c r="AO40" s="4"/>
-      <c r="AP40" s="4"/>
-      <c r="AQ40" s="4"/>
-      <c r="AR40" s="4"/>
-      <c r="AS40" s="4"/>
-      <c r="AT40" s="4"/>
-      <c r="AU40" s="4"/>
-      <c r="AV40" s="4"/>
-      <c r="AW40" s="4"/>
-      <c r="AX40" s="4"/>
-      <c r="AY40" s="4"/>
-      <c r="AZ40" s="4"/>
-      <c r="BA40" s="4"/>
-      <c r="BB40" s="4"/>
-      <c r="BC40" s="4"/>
-      <c r="BD40" s="4"/>
-      <c r="BE40" s="4"/>
-      <c r="BF40" s="4"/>
-      <c r="BG40" s="4"/>
-      <c r="BH40" s="4"/>
-      <c r="BI40" s="4"/>
-      <c r="BJ40" s="4"/>
-      <c r="BK40" s="4"/>
-      <c r="BL40" s="4"/>
-      <c r="BM40" s="4"/>
-      <c r="BN40" s="4"/>
-      <c r="BO40" s="4"/>
-      <c r="BP40" s="4"/>
-      <c r="BQ40" s="4"/>
-      <c r="BR40" s="4"/>
-      <c r="BS40" s="4"/>
-      <c r="BT40" s="4"/>
-      <c r="BU40" s="4"/>
-      <c r="BV40" s="4"/>
-      <c r="BW40" s="4"/>
-      <c r="BX40" s="4"/>
-      <c r="BY40" s="4"/>
-      <c r="BZ40" s="4"/>
-      <c r="CA40" s="4"/>
-      <c r="CB40" s="4"/>
-      <c r="CC40" s="4"/>
-      <c r="CD40" s="4"/>
-      <c r="CE40" s="4"/>
-      <c r="CF40" s="4"/>
-      <c r="CG40" s="4"/>
-      <c r="CH40" s="4"/>
-      <c r="CI40" s="4"/>
-      <c r="CJ40" s="4"/>
-      <c r="CK40" s="4"/>
-      <c r="CL40" s="4"/>
-      <c r="CM40" s="4"/>
-      <c r="CN40" s="4"/>
-      <c r="CO40" s="4"/>
+      <c r="B40" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="37"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="37"/>
+      <c r="S40" s="37"/>
+      <c r="T40" s="37"/>
+      <c r="U40" s="37"/>
+      <c r="V40" s="37"/>
+      <c r="W40" s="37"/>
+      <c r="X40" s="37"/>
+      <c r="Y40" s="37"/>
+      <c r="Z40" s="37"/>
+      <c r="AA40" s="37"/>
+      <c r="AB40" s="37"/>
+      <c r="AC40" s="37"/>
+      <c r="AD40" s="37"/>
+      <c r="AE40" s="37"/>
+      <c r="AF40" s="37"/>
+      <c r="AG40" s="37"/>
+      <c r="AH40" s="37"/>
+      <c r="AI40" s="37"/>
+      <c r="AJ40" s="37"/>
+      <c r="AK40" s="37"/>
+      <c r="AL40" s="37"/>
+      <c r="AM40" s="37"/>
+      <c r="AN40" s="37"/>
+      <c r="AO40" s="37"/>
+      <c r="AP40" s="37"/>
+      <c r="AQ40" s="37"/>
+      <c r="AR40" s="37"/>
+      <c r="AS40" s="37"/>
+      <c r="AT40" s="37"/>
+      <c r="AU40" s="37"/>
+      <c r="AV40" s="37"/>
+      <c r="AW40" s="37"/>
+      <c r="AX40" s="37"/>
+      <c r="AY40" s="37"/>
+      <c r="AZ40" s="37"/>
+      <c r="BA40" s="37"/>
+      <c r="BB40" s="37"/>
+      <c r="BC40" s="37"/>
+      <c r="BD40" s="37"/>
+      <c r="BE40" s="37"/>
+      <c r="BF40" s="37"/>
+      <c r="BG40" s="37"/>
+      <c r="BH40" s="37"/>
+      <c r="BI40" s="37"/>
+      <c r="BJ40" s="37"/>
+      <c r="BK40" s="37"/>
+      <c r="BL40" s="37"/>
+      <c r="BM40" s="37"/>
+      <c r="BN40" s="37"/>
+      <c r="BO40" s="37"/>
+      <c r="BP40" s="37"/>
+      <c r="BQ40" s="37"/>
+      <c r="BR40" s="37"/>
+      <c r="BS40" s="37"/>
+      <c r="BT40" s="37"/>
+      <c r="BU40" s="38"/>
+      <c r="BV40" s="25"/>
+      <c r="BW40" s="25"/>
+      <c r="BX40" s="25"/>
+      <c r="BY40" s="25"/>
+      <c r="BZ40" s="25"/>
+      <c r="CA40" s="25"/>
+      <c r="CB40" s="25"/>
+      <c r="CC40" s="25"/>
+      <c r="CD40" s="25"/>
+      <c r="CE40" s="25"/>
+      <c r="CF40" s="25"/>
+      <c r="CG40" s="25"/>
+      <c r="CH40" s="25"/>
+      <c r="CI40" s="25"/>
+      <c r="CJ40" s="25"/>
+      <c r="CK40" s="25"/>
+      <c r="CL40" s="25"/>
+      <c r="CM40" s="25"/>
+      <c r="CN40" s="25"/>
+      <c r="CO40" s="25"/>
     </row>
-    <row r="41" spans="1:93" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:93" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="4"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="4"/>
-      <c r="W41" s="4"/>
-      <c r="X41" s="4"/>
-      <c r="Y41" s="4"/>
-      <c r="Z41" s="4"/>
-      <c r="AA41" s="4"/>
-      <c r="AB41" s="4"/>
-      <c r="AC41" s="4"/>
-      <c r="AD41" s="4"/>
-      <c r="AE41" s="4"/>
-      <c r="AF41" s="4"/>
-      <c r="AG41" s="4"/>
-      <c r="AH41" s="4"/>
-      <c r="AI41" s="4"/>
-      <c r="AJ41" s="4"/>
-      <c r="AK41" s="4"/>
-      <c r="AL41" s="4"/>
-      <c r="AM41" s="4"/>
-      <c r="AN41" s="4"/>
-      <c r="AO41" s="4"/>
-      <c r="AP41" s="4"/>
-      <c r="AQ41" s="4"/>
-      <c r="AR41" s="4"/>
-      <c r="AS41" s="4"/>
-      <c r="AT41" s="4"/>
-      <c r="AU41" s="4"/>
-      <c r="AV41" s="4"/>
-      <c r="AW41" s="4"/>
-      <c r="AX41" s="4"/>
-      <c r="AY41" s="4"/>
-      <c r="AZ41" s="4"/>
-      <c r="BA41" s="4"/>
-      <c r="BB41" s="4"/>
-      <c r="BC41" s="4"/>
-      <c r="BD41" s="4"/>
-      <c r="BE41" s="4"/>
-      <c r="BF41" s="4"/>
-      <c r="BG41" s="4"/>
-      <c r="BH41" s="4"/>
-      <c r="BI41" s="4"/>
-      <c r="BJ41" s="4"/>
-      <c r="BK41" s="4"/>
-      <c r="BL41" s="4"/>
-      <c r="BM41" s="4"/>
-      <c r="BN41" s="4"/>
-      <c r="BO41" s="4"/>
-      <c r="BP41" s="4"/>
-      <c r="BQ41" s="4"/>
-      <c r="BR41" s="4"/>
-      <c r="BS41" s="4"/>
-      <c r="BT41" s="4"/>
-      <c r="BU41" s="4"/>
-      <c r="BV41" s="4"/>
-      <c r="BW41" s="4"/>
-      <c r="BX41" s="4"/>
-      <c r="BY41" s="4"/>
-      <c r="BZ41" s="4"/>
-      <c r="CA41" s="4"/>
-      <c r="CB41" s="4"/>
-      <c r="CC41" s="4"/>
-      <c r="CD41" s="4"/>
-      <c r="CE41" s="4"/>
-      <c r="CF41" s="4"/>
-      <c r="CG41" s="4"/>
-      <c r="CH41" s="4"/>
-      <c r="CI41" s="4"/>
-      <c r="CJ41" s="4"/>
-      <c r="CK41" s="4"/>
-      <c r="CL41" s="4"/>
-      <c r="CM41" s="4"/>
-      <c r="CN41" s="4"/>
-      <c r="CO41" s="4"/>
+      <c r="B41" s="42">
+        <v>17</v>
+      </c>
+      <c r="C41" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="29">
+        <v>0</v>
+      </c>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="27"/>
+      <c r="T41" s="27"/>
+      <c r="U41" s="27"/>
+      <c r="V41" s="27"/>
+      <c r="W41" s="27"/>
+      <c r="X41" s="27"/>
+      <c r="Y41" s="27"/>
+      <c r="Z41" s="27"/>
+      <c r="AA41" s="27"/>
+      <c r="AB41" s="27"/>
+      <c r="AC41" s="27"/>
+      <c r="AD41" s="27"/>
+      <c r="AE41" s="27"/>
+      <c r="AF41" s="27"/>
+      <c r="AG41" s="27"/>
+      <c r="AH41" s="27"/>
+      <c r="AI41" s="27"/>
+      <c r="AJ41" s="27"/>
+      <c r="AK41" s="27"/>
+      <c r="AL41" s="27"/>
+      <c r="AM41" s="27"/>
+      <c r="AN41" s="27"/>
+      <c r="AO41" s="27"/>
+      <c r="AP41" s="27"/>
+      <c r="AQ41" s="27"/>
+      <c r="AR41" s="27"/>
+      <c r="AS41" s="27"/>
+      <c r="AT41" s="27"/>
+      <c r="AU41" s="27"/>
+      <c r="AV41" s="27"/>
+      <c r="AW41" s="27"/>
+      <c r="AX41" s="27"/>
+      <c r="AY41" s="27"/>
+      <c r="AZ41" s="27"/>
+      <c r="BA41" s="27"/>
+      <c r="BB41" s="27"/>
+      <c r="BC41" s="27"/>
+      <c r="BD41" s="27"/>
+      <c r="BE41" s="27"/>
+      <c r="BF41" s="27"/>
+      <c r="BG41" s="27"/>
+      <c r="BH41" s="27"/>
+      <c r="BI41" s="27"/>
+      <c r="BJ41" s="27"/>
+      <c r="BK41" s="27"/>
+      <c r="BL41" s="27"/>
+      <c r="BM41" s="27"/>
+      <c r="BN41" s="27"/>
+      <c r="BO41" s="27"/>
+      <c r="BP41" s="27"/>
+      <c r="BQ41" s="27"/>
+      <c r="BR41" s="27"/>
+      <c r="BS41" s="27"/>
+      <c r="BT41" s="27"/>
+      <c r="BU41" s="32"/>
+      <c r="BV41" s="25"/>
+      <c r="BW41" s="25"/>
+      <c r="BX41" s="25"/>
+      <c r="BY41" s="25"/>
+      <c r="BZ41" s="25"/>
+      <c r="CA41" s="25"/>
+      <c r="CB41" s="25"/>
+      <c r="CC41" s="25"/>
+      <c r="CD41" s="25"/>
+      <c r="CE41" s="25"/>
+      <c r="CF41" s="25"/>
+      <c r="CG41" s="25"/>
+      <c r="CH41" s="25"/>
+      <c r="CI41" s="25"/>
+      <c r="CJ41" s="25"/>
+      <c r="CK41" s="25"/>
+      <c r="CL41" s="25"/>
+      <c r="CM41" s="25"/>
+      <c r="CN41" s="25"/>
+      <c r="CO41" s="25"/>
     </row>
-    <row r="42" spans="1:93" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:93" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="4"/>
-      <c r="U42" s="4"/>
-      <c r="V42" s="4"/>
-      <c r="W42" s="4"/>
-      <c r="X42" s="4"/>
-      <c r="Y42" s="4"/>
-      <c r="Z42" s="4"/>
-      <c r="AA42" s="4"/>
-      <c r="AB42" s="4"/>
-      <c r="AC42" s="4"/>
-      <c r="AD42" s="4"/>
-      <c r="AE42" s="4"/>
-      <c r="AF42" s="4"/>
-      <c r="AG42" s="4"/>
-      <c r="AH42" s="4"/>
-      <c r="AI42" s="4"/>
-      <c r="AJ42" s="4"/>
-      <c r="AK42" s="4"/>
-      <c r="AL42" s="4"/>
-      <c r="AM42" s="4"/>
-      <c r="AN42" s="4"/>
-      <c r="AO42" s="4"/>
-      <c r="AP42" s="4"/>
-      <c r="AQ42" s="4"/>
-      <c r="AR42" s="4"/>
-      <c r="AS42" s="4"/>
-      <c r="AT42" s="4"/>
-      <c r="AU42" s="4"/>
-      <c r="AV42" s="4"/>
-      <c r="AW42" s="4"/>
-      <c r="AX42" s="4"/>
-      <c r="AY42" s="4"/>
-      <c r="AZ42" s="4"/>
-      <c r="BA42" s="4"/>
-      <c r="BB42" s="4"/>
-      <c r="BC42" s="4"/>
-      <c r="BD42" s="4"/>
-      <c r="BE42" s="4"/>
-      <c r="BF42" s="4"/>
-      <c r="BG42" s="4"/>
-      <c r="BH42" s="4"/>
-      <c r="BI42" s="4"/>
-      <c r="BJ42" s="4"/>
-      <c r="BK42" s="4"/>
-      <c r="BL42" s="4"/>
-      <c r="BM42" s="4"/>
-      <c r="BN42" s="4"/>
-      <c r="BO42" s="4"/>
-      <c r="BP42" s="4"/>
-      <c r="BQ42" s="4"/>
-      <c r="BR42" s="4"/>
-      <c r="BS42" s="4"/>
-      <c r="BT42" s="4"/>
-      <c r="BU42" s="4"/>
-      <c r="BV42" s="4"/>
-      <c r="BW42" s="4"/>
-      <c r="BX42" s="4"/>
-      <c r="BY42" s="4"/>
-      <c r="BZ42" s="4"/>
-      <c r="CA42" s="4"/>
-      <c r="CB42" s="4"/>
-      <c r="CC42" s="4"/>
-      <c r="CD42" s="4"/>
-      <c r="CE42" s="4"/>
-      <c r="CF42" s="4"/>
-      <c r="CG42" s="4"/>
-      <c r="CH42" s="4"/>
-      <c r="CI42" s="4"/>
-      <c r="CJ42" s="4"/>
-      <c r="CK42" s="4"/>
-      <c r="CL42" s="4"/>
-      <c r="CM42" s="4"/>
-      <c r="CN42" s="4"/>
-      <c r="CO42" s="4"/>
+      <c r="B42" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="37"/>
+      <c r="S42" s="37"/>
+      <c r="T42" s="37"/>
+      <c r="U42" s="37"/>
+      <c r="V42" s="37"/>
+      <c r="W42" s="37"/>
+      <c r="X42" s="37"/>
+      <c r="Y42" s="37"/>
+      <c r="Z42" s="37"/>
+      <c r="AA42" s="37"/>
+      <c r="AB42" s="37"/>
+      <c r="AC42" s="37"/>
+      <c r="AD42" s="37"/>
+      <c r="AE42" s="37"/>
+      <c r="AF42" s="37"/>
+      <c r="AG42" s="37"/>
+      <c r="AH42" s="37"/>
+      <c r="AI42" s="37"/>
+      <c r="AJ42" s="37"/>
+      <c r="AK42" s="37"/>
+      <c r="AL42" s="37"/>
+      <c r="AM42" s="37"/>
+      <c r="AN42" s="37"/>
+      <c r="AO42" s="37"/>
+      <c r="AP42" s="37"/>
+      <c r="AQ42" s="37"/>
+      <c r="AR42" s="37"/>
+      <c r="AS42" s="37"/>
+      <c r="AT42" s="37"/>
+      <c r="AU42" s="37"/>
+      <c r="AV42" s="37"/>
+      <c r="AW42" s="37"/>
+      <c r="AX42" s="37"/>
+      <c r="AY42" s="37"/>
+      <c r="AZ42" s="37"/>
+      <c r="BA42" s="37"/>
+      <c r="BB42" s="37"/>
+      <c r="BC42" s="37"/>
+      <c r="BD42" s="37"/>
+      <c r="BE42" s="37"/>
+      <c r="BF42" s="37"/>
+      <c r="BG42" s="37"/>
+      <c r="BH42" s="37"/>
+      <c r="BI42" s="37"/>
+      <c r="BJ42" s="37"/>
+      <c r="BK42" s="37"/>
+      <c r="BL42" s="37"/>
+      <c r="BM42" s="37"/>
+      <c r="BN42" s="37"/>
+      <c r="BO42" s="37"/>
+      <c r="BP42" s="37"/>
+      <c r="BQ42" s="37"/>
+      <c r="BR42" s="37"/>
+      <c r="BS42" s="37"/>
+      <c r="BT42" s="37"/>
+      <c r="BU42" s="38"/>
+      <c r="BV42" s="25"/>
+      <c r="BW42" s="25"/>
+      <c r="BX42" s="25"/>
+      <c r="BY42" s="25"/>
+      <c r="BZ42" s="25"/>
+      <c r="CA42" s="25"/>
+      <c r="CB42" s="25"/>
+      <c r="CC42" s="25"/>
+      <c r="CD42" s="25"/>
+      <c r="CE42" s="25"/>
+      <c r="CF42" s="25"/>
+      <c r="CG42" s="25"/>
+      <c r="CH42" s="25"/>
+      <c r="CI42" s="25"/>
+      <c r="CJ42" s="25"/>
+      <c r="CK42" s="25"/>
+      <c r="CL42" s="25"/>
+      <c r="CM42" s="25"/>
+      <c r="CN42" s="25"/>
+      <c r="CO42" s="25"/>
     </row>
-    <row r="43" spans="1:93" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:93" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="4"/>
-      <c r="U43" s="4"/>
-      <c r="V43" s="4"/>
-      <c r="W43" s="4"/>
-      <c r="X43" s="4"/>
-      <c r="Y43" s="4"/>
-      <c r="Z43" s="4"/>
-      <c r="AA43" s="4"/>
-      <c r="AB43" s="4"/>
-      <c r="AC43" s="4"/>
-      <c r="AD43" s="4"/>
-      <c r="AE43" s="4"/>
-      <c r="AF43" s="4"/>
-      <c r="AG43" s="4"/>
-      <c r="AH43" s="4"/>
-      <c r="AI43" s="4"/>
-      <c r="AJ43" s="4"/>
-      <c r="AK43" s="4"/>
-      <c r="AL43" s="4"/>
-      <c r="AM43" s="4"/>
-      <c r="AN43" s="4"/>
-      <c r="AO43" s="4"/>
-      <c r="AP43" s="4"/>
-      <c r="AQ43" s="4"/>
-      <c r="AR43" s="4"/>
-      <c r="AS43" s="4"/>
-      <c r="AT43" s="4"/>
-      <c r="AU43" s="4"/>
-      <c r="AV43" s="4"/>
-      <c r="AW43" s="4"/>
-      <c r="AX43" s="4"/>
-      <c r="AY43" s="4"/>
-      <c r="AZ43" s="4"/>
-      <c r="BA43" s="4"/>
-      <c r="BB43" s="4"/>
-      <c r="BC43" s="4"/>
-      <c r="BD43" s="4"/>
-      <c r="BE43" s="4"/>
-      <c r="BF43" s="4"/>
-      <c r="BG43" s="4"/>
-      <c r="BH43" s="4"/>
-      <c r="BI43" s="4"/>
-      <c r="BJ43" s="4"/>
-      <c r="BK43" s="4"/>
-      <c r="BL43" s="4"/>
-      <c r="BM43" s="4"/>
-      <c r="BN43" s="4"/>
-      <c r="BO43" s="4"/>
-      <c r="BP43" s="4"/>
-      <c r="BQ43" s="4"/>
-      <c r="BR43" s="4"/>
-      <c r="BS43" s="4"/>
-      <c r="BT43" s="4"/>
-      <c r="BU43" s="4"/>
-      <c r="BV43" s="4"/>
-      <c r="BW43" s="4"/>
-      <c r="BX43" s="4"/>
-      <c r="BY43" s="4"/>
-      <c r="BZ43" s="4"/>
-      <c r="CA43" s="4"/>
-      <c r="CB43" s="4"/>
-      <c r="CC43" s="4"/>
-      <c r="CD43" s="4"/>
-      <c r="CE43" s="4"/>
-      <c r="CF43" s="4"/>
-      <c r="CG43" s="4"/>
-      <c r="CH43" s="4"/>
-      <c r="CI43" s="4"/>
-      <c r="CJ43" s="4"/>
-      <c r="CK43" s="4"/>
-      <c r="CL43" s="4"/>
-      <c r="CM43" s="4"/>
-      <c r="CN43" s="4"/>
-      <c r="CO43" s="4"/>
+      <c r="B43" s="42">
+        <v>18</v>
+      </c>
+      <c r="C43" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="29">
+        <v>0</v>
+      </c>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="27"/>
+      <c r="S43" s="27"/>
+      <c r="T43" s="27"/>
+      <c r="U43" s="27"/>
+      <c r="V43" s="27"/>
+      <c r="W43" s="27"/>
+      <c r="X43" s="27"/>
+      <c r="Y43" s="27"/>
+      <c r="Z43" s="27"/>
+      <c r="AA43" s="27"/>
+      <c r="AB43" s="27"/>
+      <c r="AC43" s="27"/>
+      <c r="AD43" s="27"/>
+      <c r="AE43" s="27"/>
+      <c r="AF43" s="27"/>
+      <c r="AG43" s="27"/>
+      <c r="AH43" s="27"/>
+      <c r="AI43" s="27"/>
+      <c r="AJ43" s="27"/>
+      <c r="AK43" s="27"/>
+      <c r="AL43" s="27"/>
+      <c r="AM43" s="27"/>
+      <c r="AN43" s="27"/>
+      <c r="AO43" s="27"/>
+      <c r="AP43" s="27"/>
+      <c r="AQ43" s="27"/>
+      <c r="AR43" s="27"/>
+      <c r="AS43" s="27"/>
+      <c r="AT43" s="27"/>
+      <c r="AU43" s="27"/>
+      <c r="AV43" s="27"/>
+      <c r="AW43" s="27"/>
+      <c r="AX43" s="27"/>
+      <c r="AY43" s="27"/>
+      <c r="AZ43" s="27"/>
+      <c r="BA43" s="27"/>
+      <c r="BB43" s="27"/>
+      <c r="BC43" s="27"/>
+      <c r="BD43" s="27"/>
+      <c r="BE43" s="27"/>
+      <c r="BF43" s="27"/>
+      <c r="BG43" s="27"/>
+      <c r="BH43" s="27"/>
+      <c r="BI43" s="27"/>
+      <c r="BJ43" s="27"/>
+      <c r="BK43" s="27"/>
+      <c r="BL43" s="27"/>
+      <c r="BM43" s="27"/>
+      <c r="BN43" s="27"/>
+      <c r="BO43" s="27"/>
+      <c r="BP43" s="27"/>
+      <c r="BQ43" s="27"/>
+      <c r="BR43" s="27"/>
+      <c r="BS43" s="27"/>
+      <c r="BT43" s="27"/>
+      <c r="BU43" s="32"/>
+      <c r="BV43" s="25"/>
+      <c r="BW43" s="25"/>
+      <c r="BX43" s="25"/>
+      <c r="BY43" s="25"/>
+      <c r="BZ43" s="25"/>
+      <c r="CA43" s="25"/>
+      <c r="CB43" s="25"/>
+      <c r="CC43" s="25"/>
+      <c r="CD43" s="25"/>
+      <c r="CE43" s="25"/>
+      <c r="CF43" s="25"/>
+      <c r="CG43" s="25"/>
+      <c r="CH43" s="25"/>
+      <c r="CI43" s="25"/>
+      <c r="CJ43" s="25"/>
+      <c r="CK43" s="25"/>
+      <c r="CL43" s="25"/>
+      <c r="CM43" s="25"/>
+      <c r="CN43" s="25"/>
+      <c r="CO43" s="25"/>
     </row>
-    <row r="44" spans="1:93" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:93" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="4"/>
-      <c r="U44" s="4"/>
-      <c r="V44" s="4"/>
-      <c r="W44" s="4"/>
-      <c r="X44" s="4"/>
-      <c r="Y44" s="4"/>
-      <c r="Z44" s="4"/>
-      <c r="AA44" s="4"/>
-      <c r="AB44" s="4"/>
-      <c r="AC44" s="4"/>
-      <c r="AD44" s="4"/>
-      <c r="AE44" s="4"/>
-      <c r="AF44" s="4"/>
-      <c r="AG44" s="4"/>
-      <c r="AH44" s="4"/>
-      <c r="AI44" s="4"/>
-      <c r="AJ44" s="4"/>
-      <c r="AK44" s="4"/>
-      <c r="AL44" s="4"/>
-      <c r="AM44" s="4"/>
-      <c r="AN44" s="4"/>
-      <c r="AO44" s="4"/>
-      <c r="AP44" s="4"/>
-      <c r="AQ44" s="4"/>
-      <c r="AR44" s="4"/>
-      <c r="AS44" s="4"/>
-      <c r="AT44" s="4"/>
-      <c r="AU44" s="4"/>
-      <c r="AV44" s="4"/>
-      <c r="AW44" s="4"/>
-      <c r="AX44" s="4"/>
-      <c r="AY44" s="4"/>
-      <c r="AZ44" s="4"/>
-      <c r="BA44" s="4"/>
-      <c r="BB44" s="4"/>
-      <c r="BC44" s="4"/>
-      <c r="BD44" s="4"/>
-      <c r="BE44" s="4"/>
-      <c r="BF44" s="4"/>
-      <c r="BG44" s="4"/>
-      <c r="BH44" s="4"/>
-      <c r="BI44" s="4"/>
-      <c r="BJ44" s="4"/>
-      <c r="BK44" s="4"/>
-      <c r="BL44" s="4"/>
-      <c r="BM44" s="4"/>
-      <c r="BN44" s="4"/>
-      <c r="BO44" s="4"/>
-      <c r="BP44" s="4"/>
-      <c r="BQ44" s="4"/>
-      <c r="BR44" s="4"/>
-      <c r="BS44" s="4"/>
-      <c r="BT44" s="4"/>
-      <c r="BU44" s="4"/>
-      <c r="BV44" s="4"/>
-      <c r="BW44" s="4"/>
-      <c r="BX44" s="4"/>
-      <c r="BY44" s="4"/>
-      <c r="BZ44" s="4"/>
-      <c r="CA44" s="4"/>
-      <c r="CB44" s="4"/>
-      <c r="CC44" s="4"/>
-      <c r="CD44" s="4"/>
-      <c r="CE44" s="4"/>
-      <c r="CF44" s="4"/>
-      <c r="CG44" s="4"/>
-      <c r="CH44" s="4"/>
-      <c r="CI44" s="4"/>
-      <c r="CJ44" s="4"/>
-      <c r="CK44" s="4"/>
-      <c r="CL44" s="4"/>
-      <c r="CM44" s="4"/>
-      <c r="CN44" s="4"/>
-      <c r="CO44" s="4"/>
+      <c r="B44" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="37"/>
+      <c r="N44" s="37"/>
+      <c r="O44" s="37"/>
+      <c r="P44" s="37"/>
+      <c r="Q44" s="37"/>
+      <c r="R44" s="37"/>
+      <c r="S44" s="37"/>
+      <c r="T44" s="37"/>
+      <c r="U44" s="37"/>
+      <c r="V44" s="37"/>
+      <c r="W44" s="37"/>
+      <c r="X44" s="37"/>
+      <c r="Y44" s="37"/>
+      <c r="Z44" s="37"/>
+      <c r="AA44" s="37"/>
+      <c r="AB44" s="37"/>
+      <c r="AC44" s="37"/>
+      <c r="AD44" s="37"/>
+      <c r="AE44" s="37"/>
+      <c r="AF44" s="37"/>
+      <c r="AG44" s="37"/>
+      <c r="AH44" s="37"/>
+      <c r="AI44" s="37"/>
+      <c r="AJ44" s="37"/>
+      <c r="AK44" s="37"/>
+      <c r="AL44" s="37"/>
+      <c r="AM44" s="37"/>
+      <c r="AN44" s="37"/>
+      <c r="AO44" s="37"/>
+      <c r="AP44" s="37"/>
+      <c r="AQ44" s="37"/>
+      <c r="AR44" s="37"/>
+      <c r="AS44" s="37"/>
+      <c r="AT44" s="37"/>
+      <c r="AU44" s="37"/>
+      <c r="AV44" s="37"/>
+      <c r="AW44" s="37"/>
+      <c r="AX44" s="37"/>
+      <c r="AY44" s="37"/>
+      <c r="AZ44" s="37"/>
+      <c r="BA44" s="37"/>
+      <c r="BB44" s="37"/>
+      <c r="BC44" s="37"/>
+      <c r="BD44" s="37"/>
+      <c r="BE44" s="37"/>
+      <c r="BF44" s="37"/>
+      <c r="BG44" s="37"/>
+      <c r="BH44" s="37"/>
+      <c r="BI44" s="37"/>
+      <c r="BJ44" s="37"/>
+      <c r="BK44" s="37"/>
+      <c r="BL44" s="37"/>
+      <c r="BM44" s="37"/>
+      <c r="BN44" s="37"/>
+      <c r="BO44" s="37"/>
+      <c r="BP44" s="37"/>
+      <c r="BQ44" s="37"/>
+      <c r="BR44" s="37"/>
+      <c r="BS44" s="37"/>
+      <c r="BT44" s="37"/>
+      <c r="BU44" s="38"/>
+      <c r="BV44" s="25"/>
+      <c r="BW44" s="25"/>
+      <c r="BX44" s="25"/>
+      <c r="BY44" s="25"/>
+      <c r="BZ44" s="25"/>
+      <c r="CA44" s="25"/>
+      <c r="CB44" s="25"/>
+      <c r="CC44" s="25"/>
+      <c r="CD44" s="25"/>
+      <c r="CE44" s="25"/>
+      <c r="CF44" s="25"/>
+      <c r="CG44" s="25"/>
+      <c r="CH44" s="25"/>
+      <c r="CI44" s="25"/>
+      <c r="CJ44" s="25"/>
+      <c r="CK44" s="25"/>
+      <c r="CL44" s="25"/>
+      <c r="CM44" s="25"/>
+      <c r="CN44" s="25"/>
+      <c r="CO44" s="25"/>
     </row>
-    <row r="45" spans="1:93" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:93" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="4"/>
-      <c r="U45" s="4"/>
-      <c r="V45" s="4"/>
-      <c r="W45" s="4"/>
-      <c r="X45" s="4"/>
-      <c r="Y45" s="4"/>
-      <c r="Z45" s="4"/>
-      <c r="AA45" s="4"/>
-      <c r="AB45" s="4"/>
-      <c r="AC45" s="4"/>
-      <c r="AD45" s="4"/>
-      <c r="AE45" s="4"/>
-      <c r="AF45" s="4"/>
-      <c r="AG45" s="4"/>
-      <c r="AH45" s="4"/>
-      <c r="AI45" s="4"/>
-      <c r="AJ45" s="4"/>
-      <c r="AK45" s="4"/>
-      <c r="AL45" s="4"/>
-      <c r="AM45" s="4"/>
-      <c r="AN45" s="4"/>
-      <c r="AO45" s="4"/>
-      <c r="AP45" s="4"/>
-      <c r="AQ45" s="4"/>
-      <c r="AR45" s="4"/>
-      <c r="AS45" s="4"/>
-      <c r="AT45" s="4"/>
-      <c r="AU45" s="4"/>
-      <c r="AV45" s="4"/>
-      <c r="AW45" s="4"/>
-      <c r="AX45" s="4"/>
-      <c r="AY45" s="4"/>
-      <c r="AZ45" s="4"/>
-      <c r="BA45" s="4"/>
-      <c r="BB45" s="4"/>
-      <c r="BC45" s="4"/>
-      <c r="BD45" s="4"/>
-      <c r="BE45" s="4"/>
-      <c r="BF45" s="4"/>
-      <c r="BG45" s="4"/>
-      <c r="BH45" s="4"/>
-      <c r="BI45" s="4"/>
-      <c r="BJ45" s="4"/>
-      <c r="BK45" s="4"/>
-      <c r="BL45" s="4"/>
-      <c r="BM45" s="4"/>
-      <c r="BN45" s="4"/>
-      <c r="BO45" s="4"/>
-      <c r="BP45" s="4"/>
-      <c r="BQ45" s="4"/>
-      <c r="BR45" s="4"/>
-      <c r="BS45" s="4"/>
-      <c r="BT45" s="4"/>
-      <c r="BU45" s="4"/>
-      <c r="BV45" s="4"/>
-      <c r="BW45" s="4"/>
-      <c r="BX45" s="4"/>
-      <c r="BY45" s="4"/>
-      <c r="BZ45" s="4"/>
-      <c r="CA45" s="4"/>
-      <c r="CB45" s="4"/>
-      <c r="CC45" s="4"/>
-      <c r="CD45" s="4"/>
-      <c r="CE45" s="4"/>
-      <c r="CF45" s="4"/>
-      <c r="CG45" s="4"/>
-      <c r="CH45" s="4"/>
-      <c r="CI45" s="4"/>
-      <c r="CJ45" s="4"/>
-      <c r="CK45" s="4"/>
-      <c r="CL45" s="4"/>
-      <c r="CM45" s="4"/>
-      <c r="CN45" s="4"/>
-      <c r="CO45" s="4"/>
+      <c r="B45" s="42">
+        <v>19</v>
+      </c>
+      <c r="C45" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="29">
+        <v>0</v>
+      </c>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="27"/>
+      <c r="P45" s="27"/>
+      <c r="Q45" s="27"/>
+      <c r="R45" s="27"/>
+      <c r="S45" s="27"/>
+      <c r="T45" s="27"/>
+      <c r="U45" s="27"/>
+      <c r="V45" s="27"/>
+      <c r="W45" s="27"/>
+      <c r="X45" s="27"/>
+      <c r="Y45" s="27"/>
+      <c r="Z45" s="27"/>
+      <c r="AA45" s="27"/>
+      <c r="AB45" s="27"/>
+      <c r="AC45" s="27"/>
+      <c r="AD45" s="27"/>
+      <c r="AE45" s="27"/>
+      <c r="AF45" s="27"/>
+      <c r="AG45" s="27"/>
+      <c r="AH45" s="27"/>
+      <c r="AI45" s="27"/>
+      <c r="AJ45" s="27"/>
+      <c r="AK45" s="27"/>
+      <c r="AL45" s="27"/>
+      <c r="AM45" s="27"/>
+      <c r="AN45" s="27"/>
+      <c r="AO45" s="27"/>
+      <c r="AP45" s="27"/>
+      <c r="AQ45" s="27"/>
+      <c r="AR45" s="27"/>
+      <c r="AS45" s="27"/>
+      <c r="AT45" s="27"/>
+      <c r="AU45" s="27"/>
+      <c r="AV45" s="27"/>
+      <c r="AW45" s="27"/>
+      <c r="AX45" s="27"/>
+      <c r="AY45" s="27"/>
+      <c r="AZ45" s="27"/>
+      <c r="BA45" s="27"/>
+      <c r="BB45" s="27"/>
+      <c r="BC45" s="27"/>
+      <c r="BD45" s="27"/>
+      <c r="BE45" s="27"/>
+      <c r="BF45" s="27"/>
+      <c r="BG45" s="27"/>
+      <c r="BH45" s="27"/>
+      <c r="BI45" s="27"/>
+      <c r="BJ45" s="27"/>
+      <c r="BK45" s="27"/>
+      <c r="BL45" s="27"/>
+      <c r="BM45" s="27"/>
+      <c r="BN45" s="27"/>
+      <c r="BO45" s="27"/>
+      <c r="BP45" s="27"/>
+      <c r="BQ45" s="27"/>
+      <c r="BR45" s="27"/>
+      <c r="BS45" s="27"/>
+      <c r="BT45" s="27"/>
+      <c r="BU45" s="32"/>
+      <c r="BV45" s="25"/>
+      <c r="BW45" s="25"/>
+      <c r="BX45" s="25"/>
+      <c r="BY45" s="25"/>
+      <c r="BZ45" s="25"/>
+      <c r="CA45" s="25"/>
+      <c r="CB45" s="25"/>
+      <c r="CC45" s="25"/>
+      <c r="CD45" s="25"/>
+      <c r="CE45" s="25"/>
+      <c r="CF45" s="25"/>
+      <c r="CG45" s="25"/>
+      <c r="CH45" s="25"/>
+      <c r="CI45" s="25"/>
+      <c r="CJ45" s="25"/>
+      <c r="CK45" s="25"/>
+      <c r="CL45" s="25"/>
+      <c r="CM45" s="25"/>
+      <c r="CN45" s="25"/>
+      <c r="CO45" s="25"/>
     </row>
-    <row r="46" spans="1:93" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:93" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="4"/>
-      <c r="U46" s="4"/>
-      <c r="V46" s="4"/>
-      <c r="W46" s="4"/>
-      <c r="X46" s="4"/>
-      <c r="Y46" s="4"/>
-      <c r="Z46" s="4"/>
-      <c r="AA46" s="4"/>
-      <c r="AB46" s="4"/>
-      <c r="AC46" s="4"/>
-      <c r="AD46" s="4"/>
-      <c r="AE46" s="4"/>
-      <c r="AF46" s="4"/>
-      <c r="AG46" s="4"/>
-      <c r="AH46" s="4"/>
-      <c r="AI46" s="4"/>
-      <c r="AJ46" s="4"/>
-      <c r="AK46" s="4"/>
-      <c r="AL46" s="4"/>
-      <c r="AM46" s="4"/>
-      <c r="AN46" s="4"/>
-      <c r="AO46" s="4"/>
-      <c r="AP46" s="4"/>
-      <c r="AQ46" s="4"/>
-      <c r="AR46" s="4"/>
-      <c r="AS46" s="4"/>
-      <c r="AT46" s="4"/>
-      <c r="AU46" s="4"/>
-      <c r="AV46" s="4"/>
-      <c r="AW46" s="4"/>
-      <c r="AX46" s="4"/>
-      <c r="AY46" s="4"/>
-      <c r="AZ46" s="4"/>
-      <c r="BA46" s="4"/>
-      <c r="BB46" s="4"/>
-      <c r="BC46" s="4"/>
-      <c r="BD46" s="4"/>
-      <c r="BE46" s="4"/>
-      <c r="BF46" s="4"/>
-      <c r="BG46" s="4"/>
-      <c r="BH46" s="4"/>
-      <c r="BI46" s="4"/>
-      <c r="BJ46" s="4"/>
-      <c r="BK46" s="4"/>
-      <c r="BL46" s="4"/>
-      <c r="BM46" s="4"/>
-      <c r="BN46" s="4"/>
-      <c r="BO46" s="4"/>
-      <c r="BP46" s="4"/>
-      <c r="BQ46" s="4"/>
-      <c r="BR46" s="4"/>
-      <c r="BS46" s="4"/>
-      <c r="BT46" s="4"/>
-      <c r="BU46" s="4"/>
-      <c r="BV46" s="4"/>
-      <c r="BW46" s="4"/>
-      <c r="BX46" s="4"/>
-      <c r="BY46" s="4"/>
-      <c r="BZ46" s="4"/>
-      <c r="CA46" s="4"/>
-      <c r="CB46" s="4"/>
-      <c r="CC46" s="4"/>
-      <c r="CD46" s="4"/>
-      <c r="CE46" s="4"/>
-      <c r="CF46" s="4"/>
-      <c r="CG46" s="4"/>
-      <c r="CH46" s="4"/>
-      <c r="CI46" s="4"/>
-      <c r="CJ46" s="4"/>
-      <c r="CK46" s="4"/>
-      <c r="CL46" s="4"/>
-      <c r="CM46" s="4"/>
-      <c r="CN46" s="4"/>
-      <c r="CO46" s="4"/>
+      <c r="B46" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="37"/>
+      <c r="N46" s="37"/>
+      <c r="O46" s="37"/>
+      <c r="P46" s="37"/>
+      <c r="Q46" s="37"/>
+      <c r="R46" s="37"/>
+      <c r="S46" s="37"/>
+      <c r="T46" s="37"/>
+      <c r="U46" s="37"/>
+      <c r="V46" s="37"/>
+      <c r="W46" s="37"/>
+      <c r="X46" s="37"/>
+      <c r="Y46" s="37"/>
+      <c r="Z46" s="37"/>
+      <c r="AA46" s="37"/>
+      <c r="AB46" s="37"/>
+      <c r="AC46" s="37"/>
+      <c r="AD46" s="37"/>
+      <c r="AE46" s="37"/>
+      <c r="AF46" s="37"/>
+      <c r="AG46" s="37"/>
+      <c r="AH46" s="37"/>
+      <c r="AI46" s="37"/>
+      <c r="AJ46" s="37"/>
+      <c r="AK46" s="37"/>
+      <c r="AL46" s="37"/>
+      <c r="AM46" s="37"/>
+      <c r="AN46" s="37"/>
+      <c r="AO46" s="37"/>
+      <c r="AP46" s="37"/>
+      <c r="AQ46" s="37"/>
+      <c r="AR46" s="37"/>
+      <c r="AS46" s="37"/>
+      <c r="AT46" s="37"/>
+      <c r="AU46" s="37"/>
+      <c r="AV46" s="37"/>
+      <c r="AW46" s="37"/>
+      <c r="AX46" s="37"/>
+      <c r="AY46" s="37"/>
+      <c r="AZ46" s="37"/>
+      <c r="BA46" s="37"/>
+      <c r="BB46" s="37"/>
+      <c r="BC46" s="37"/>
+      <c r="BD46" s="37"/>
+      <c r="BE46" s="37"/>
+      <c r="BF46" s="37"/>
+      <c r="BG46" s="37"/>
+      <c r="BH46" s="37"/>
+      <c r="BI46" s="37"/>
+      <c r="BJ46" s="37"/>
+      <c r="BK46" s="37"/>
+      <c r="BL46" s="37"/>
+      <c r="BM46" s="37"/>
+      <c r="BN46" s="37"/>
+      <c r="BO46" s="37"/>
+      <c r="BP46" s="37"/>
+      <c r="BQ46" s="37"/>
+      <c r="BR46" s="37"/>
+      <c r="BS46" s="37"/>
+      <c r="BT46" s="37"/>
+      <c r="BU46" s="38"/>
+      <c r="BV46" s="25"/>
+      <c r="BW46" s="25"/>
+      <c r="BX46" s="25"/>
+      <c r="BY46" s="25"/>
+      <c r="BZ46" s="25"/>
+      <c r="CA46" s="25"/>
+      <c r="CB46" s="25"/>
+      <c r="CC46" s="25"/>
+      <c r="CD46" s="25"/>
+      <c r="CE46" s="25"/>
+      <c r="CF46" s="25"/>
+      <c r="CG46" s="25"/>
+      <c r="CH46" s="25"/>
+      <c r="CI46" s="25"/>
+      <c r="CJ46" s="25"/>
+      <c r="CK46" s="25"/>
+      <c r="CL46" s="25"/>
+      <c r="CM46" s="25"/>
+      <c r="CN46" s="25"/>
+      <c r="CO46" s="25"/>
     </row>
     <row r="47" spans="1:93" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
@@ -20173,386 +20275,10 @@
       <c r="CN202" s="4"/>
       <c r="CO202" s="4"/>
     </row>
-    <row r="203" spans="1:93" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="4"/>
-      <c r="B203" s="4"/>
-      <c r="C203" s="4"/>
-      <c r="D203" s="4"/>
-      <c r="E203" s="4"/>
-      <c r="F203" s="4"/>
-      <c r="G203" s="4"/>
-      <c r="H203" s="4"/>
-      <c r="I203" s="4"/>
-      <c r="J203" s="4"/>
-      <c r="K203" s="4"/>
-      <c r="L203" s="4"/>
-      <c r="M203" s="4"/>
-      <c r="N203" s="4"/>
-      <c r="O203" s="4"/>
-      <c r="P203" s="4"/>
-      <c r="Q203" s="4"/>
-      <c r="R203" s="4"/>
-      <c r="S203" s="4"/>
-      <c r="T203" s="4"/>
-      <c r="U203" s="4"/>
-      <c r="V203" s="4"/>
-      <c r="W203" s="4"/>
-      <c r="X203" s="4"/>
-      <c r="Y203" s="4"/>
-      <c r="Z203" s="4"/>
-      <c r="AA203" s="4"/>
-      <c r="AB203" s="4"/>
-      <c r="AC203" s="4"/>
-      <c r="AD203" s="4"/>
-      <c r="AE203" s="4"/>
-      <c r="AF203" s="4"/>
-      <c r="AG203" s="4"/>
-      <c r="AH203" s="4"/>
-      <c r="AI203" s="4"/>
-      <c r="AJ203" s="4"/>
-      <c r="AK203" s="4"/>
-      <c r="AL203" s="4"/>
-      <c r="AM203" s="4"/>
-      <c r="AN203" s="4"/>
-      <c r="AO203" s="4"/>
-      <c r="AP203" s="4"/>
-      <c r="AQ203" s="4"/>
-      <c r="AR203" s="4"/>
-      <c r="AS203" s="4"/>
-      <c r="AT203" s="4"/>
-      <c r="AU203" s="4"/>
-      <c r="AV203" s="4"/>
-      <c r="AW203" s="4"/>
-      <c r="AX203" s="4"/>
-      <c r="AY203" s="4"/>
-      <c r="AZ203" s="4"/>
-      <c r="BA203" s="4"/>
-      <c r="BB203" s="4"/>
-      <c r="BC203" s="4"/>
-      <c r="BD203" s="4"/>
-      <c r="BE203" s="4"/>
-      <c r="BF203" s="4"/>
-      <c r="BG203" s="4"/>
-      <c r="BH203" s="4"/>
-      <c r="BI203" s="4"/>
-      <c r="BJ203" s="4"/>
-      <c r="BK203" s="4"/>
-      <c r="BL203" s="4"/>
-      <c r="BM203" s="4"/>
-      <c r="BN203" s="4"/>
-      <c r="BO203" s="4"/>
-      <c r="BP203" s="4"/>
-      <c r="BQ203" s="4"/>
-      <c r="BR203" s="4"/>
-      <c r="BS203" s="4"/>
-      <c r="BT203" s="4"/>
-      <c r="BU203" s="4"/>
-      <c r="BV203" s="4"/>
-      <c r="BW203" s="4"/>
-      <c r="BX203" s="4"/>
-      <c r="BY203" s="4"/>
-      <c r="BZ203" s="4"/>
-      <c r="CA203" s="4"/>
-      <c r="CB203" s="4"/>
-      <c r="CC203" s="4"/>
-      <c r="CD203" s="4"/>
-      <c r="CE203" s="4"/>
-      <c r="CF203" s="4"/>
-      <c r="CG203" s="4"/>
-      <c r="CH203" s="4"/>
-      <c r="CI203" s="4"/>
-      <c r="CJ203" s="4"/>
-      <c r="CK203" s="4"/>
-      <c r="CL203" s="4"/>
-      <c r="CM203" s="4"/>
-      <c r="CN203" s="4"/>
-      <c r="CO203" s="4"/>
-    </row>
-    <row r="204" spans="1:93" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="4"/>
-      <c r="B204" s="4"/>
-      <c r="C204" s="4"/>
-      <c r="D204" s="4"/>
-      <c r="E204" s="4"/>
-      <c r="F204" s="4"/>
-      <c r="G204" s="4"/>
-      <c r="H204" s="4"/>
-      <c r="I204" s="4"/>
-      <c r="J204" s="4"/>
-      <c r="K204" s="4"/>
-      <c r="L204" s="4"/>
-      <c r="M204" s="4"/>
-      <c r="N204" s="4"/>
-      <c r="O204" s="4"/>
-      <c r="P204" s="4"/>
-      <c r="Q204" s="4"/>
-      <c r="R204" s="4"/>
-      <c r="S204" s="4"/>
-      <c r="T204" s="4"/>
-      <c r="U204" s="4"/>
-      <c r="V204" s="4"/>
-      <c r="W204" s="4"/>
-      <c r="X204" s="4"/>
-      <c r="Y204" s="4"/>
-      <c r="Z204" s="4"/>
-      <c r="AA204" s="4"/>
-      <c r="AB204" s="4"/>
-      <c r="AC204" s="4"/>
-      <c r="AD204" s="4"/>
-      <c r="AE204" s="4"/>
-      <c r="AF204" s="4"/>
-      <c r="AG204" s="4"/>
-      <c r="AH204" s="4"/>
-      <c r="AI204" s="4"/>
-      <c r="AJ204" s="4"/>
-      <c r="AK204" s="4"/>
-      <c r="AL204" s="4"/>
-      <c r="AM204" s="4"/>
-      <c r="AN204" s="4"/>
-      <c r="AO204" s="4"/>
-      <c r="AP204" s="4"/>
-      <c r="AQ204" s="4"/>
-      <c r="AR204" s="4"/>
-      <c r="AS204" s="4"/>
-      <c r="AT204" s="4"/>
-      <c r="AU204" s="4"/>
-      <c r="AV204" s="4"/>
-      <c r="AW204" s="4"/>
-      <c r="AX204" s="4"/>
-      <c r="AY204" s="4"/>
-      <c r="AZ204" s="4"/>
-      <c r="BA204" s="4"/>
-      <c r="BB204" s="4"/>
-      <c r="BC204" s="4"/>
-      <c r="BD204" s="4"/>
-      <c r="BE204" s="4"/>
-      <c r="BF204" s="4"/>
-      <c r="BG204" s="4"/>
-      <c r="BH204" s="4"/>
-      <c r="BI204" s="4"/>
-      <c r="BJ204" s="4"/>
-      <c r="BK204" s="4"/>
-      <c r="BL204" s="4"/>
-      <c r="BM204" s="4"/>
-      <c r="BN204" s="4"/>
-      <c r="BO204" s="4"/>
-      <c r="BP204" s="4"/>
-      <c r="BQ204" s="4"/>
-      <c r="BR204" s="4"/>
-      <c r="BS204" s="4"/>
-      <c r="BT204" s="4"/>
-      <c r="BU204" s="4"/>
-      <c r="BV204" s="4"/>
-      <c r="BW204" s="4"/>
-      <c r="BX204" s="4"/>
-      <c r="BY204" s="4"/>
-      <c r="BZ204" s="4"/>
-      <c r="CA204" s="4"/>
-      <c r="CB204" s="4"/>
-      <c r="CC204" s="4"/>
-      <c r="CD204" s="4"/>
-      <c r="CE204" s="4"/>
-      <c r="CF204" s="4"/>
-      <c r="CG204" s="4"/>
-      <c r="CH204" s="4"/>
-      <c r="CI204" s="4"/>
-      <c r="CJ204" s="4"/>
-      <c r="CK204" s="4"/>
-      <c r="CL204" s="4"/>
-      <c r="CM204" s="4"/>
-      <c r="CN204" s="4"/>
-      <c r="CO204" s="4"/>
-    </row>
-    <row r="205" spans="1:93" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="4"/>
-      <c r="B205" s="4"/>
-      <c r="C205" s="4"/>
-      <c r="D205" s="4"/>
-      <c r="E205" s="4"/>
-      <c r="F205" s="4"/>
-      <c r="G205" s="4"/>
-      <c r="H205" s="4"/>
-      <c r="I205" s="4"/>
-      <c r="J205" s="4"/>
-      <c r="K205" s="4"/>
-      <c r="L205" s="4"/>
-      <c r="M205" s="4"/>
-      <c r="N205" s="4"/>
-      <c r="O205" s="4"/>
-      <c r="P205" s="4"/>
-      <c r="Q205" s="4"/>
-      <c r="R205" s="4"/>
-      <c r="S205" s="4"/>
-      <c r="T205" s="4"/>
-      <c r="U205" s="4"/>
-      <c r="V205" s="4"/>
-      <c r="W205" s="4"/>
-      <c r="X205" s="4"/>
-      <c r="Y205" s="4"/>
-      <c r="Z205" s="4"/>
-      <c r="AA205" s="4"/>
-      <c r="AB205" s="4"/>
-      <c r="AC205" s="4"/>
-      <c r="AD205" s="4"/>
-      <c r="AE205" s="4"/>
-      <c r="AF205" s="4"/>
-      <c r="AG205" s="4"/>
-      <c r="AH205" s="4"/>
-      <c r="AI205" s="4"/>
-      <c r="AJ205" s="4"/>
-      <c r="AK205" s="4"/>
-      <c r="AL205" s="4"/>
-      <c r="AM205" s="4"/>
-      <c r="AN205" s="4"/>
-      <c r="AO205" s="4"/>
-      <c r="AP205" s="4"/>
-      <c r="AQ205" s="4"/>
-      <c r="AR205" s="4"/>
-      <c r="AS205" s="4"/>
-      <c r="AT205" s="4"/>
-      <c r="AU205" s="4"/>
-      <c r="AV205" s="4"/>
-      <c r="AW205" s="4"/>
-      <c r="AX205" s="4"/>
-      <c r="AY205" s="4"/>
-      <c r="AZ205" s="4"/>
-      <c r="BA205" s="4"/>
-      <c r="BB205" s="4"/>
-      <c r="BC205" s="4"/>
-      <c r="BD205" s="4"/>
-      <c r="BE205" s="4"/>
-      <c r="BF205" s="4"/>
-      <c r="BG205" s="4"/>
-      <c r="BH205" s="4"/>
-      <c r="BI205" s="4"/>
-      <c r="BJ205" s="4"/>
-      <c r="BK205" s="4"/>
-      <c r="BL205" s="4"/>
-      <c r="BM205" s="4"/>
-      <c r="BN205" s="4"/>
-      <c r="BO205" s="4"/>
-      <c r="BP205" s="4"/>
-      <c r="BQ205" s="4"/>
-      <c r="BR205" s="4"/>
-      <c r="BS205" s="4"/>
-      <c r="BT205" s="4"/>
-      <c r="BU205" s="4"/>
-      <c r="BV205" s="4"/>
-      <c r="BW205" s="4"/>
-      <c r="BX205" s="4"/>
-      <c r="BY205" s="4"/>
-      <c r="BZ205" s="4"/>
-      <c r="CA205" s="4"/>
-      <c r="CB205" s="4"/>
-      <c r="CC205" s="4"/>
-      <c r="CD205" s="4"/>
-      <c r="CE205" s="4"/>
-      <c r="CF205" s="4"/>
-      <c r="CG205" s="4"/>
-      <c r="CH205" s="4"/>
-      <c r="CI205" s="4"/>
-      <c r="CJ205" s="4"/>
-      <c r="CK205" s="4"/>
-      <c r="CL205" s="4"/>
-      <c r="CM205" s="4"/>
-      <c r="CN205" s="4"/>
-      <c r="CO205" s="4"/>
-    </row>
-    <row r="206" spans="1:93" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="4"/>
-      <c r="B206" s="4"/>
-      <c r="C206" s="4"/>
-      <c r="D206" s="4"/>
-      <c r="E206" s="4"/>
-      <c r="F206" s="4"/>
-      <c r="G206" s="4"/>
-      <c r="H206" s="4"/>
-      <c r="I206" s="4"/>
-      <c r="J206" s="4"/>
-      <c r="K206" s="4"/>
-      <c r="L206" s="4"/>
-      <c r="M206" s="4"/>
-      <c r="N206" s="4"/>
-      <c r="O206" s="4"/>
-      <c r="P206" s="4"/>
-      <c r="Q206" s="4"/>
-      <c r="R206" s="4"/>
-      <c r="S206" s="4"/>
-      <c r="T206" s="4"/>
-      <c r="U206" s="4"/>
-      <c r="V206" s="4"/>
-      <c r="W206" s="4"/>
-      <c r="X206" s="4"/>
-      <c r="Y206" s="4"/>
-      <c r="Z206" s="4"/>
-      <c r="AA206" s="4"/>
-      <c r="AB206" s="4"/>
-      <c r="AC206" s="4"/>
-      <c r="AD206" s="4"/>
-      <c r="AE206" s="4"/>
-      <c r="AF206" s="4"/>
-      <c r="AG206" s="4"/>
-      <c r="AH206" s="4"/>
-      <c r="AI206" s="4"/>
-      <c r="AJ206" s="4"/>
-      <c r="AK206" s="4"/>
-      <c r="AL206" s="4"/>
-      <c r="AM206" s="4"/>
-      <c r="AN206" s="4"/>
-      <c r="AO206" s="4"/>
-      <c r="AP206" s="4"/>
-      <c r="AQ206" s="4"/>
-      <c r="AR206" s="4"/>
-      <c r="AS206" s="4"/>
-      <c r="AT206" s="4"/>
-      <c r="AU206" s="4"/>
-      <c r="AV206" s="4"/>
-      <c r="AW206" s="4"/>
-      <c r="AX206" s="4"/>
-      <c r="AY206" s="4"/>
-      <c r="AZ206" s="4"/>
-      <c r="BA206" s="4"/>
-      <c r="BB206" s="4"/>
-      <c r="BC206" s="4"/>
-      <c r="BD206" s="4"/>
-      <c r="BE206" s="4"/>
-      <c r="BF206" s="4"/>
-      <c r="BG206" s="4"/>
-      <c r="BH206" s="4"/>
-      <c r="BI206" s="4"/>
-      <c r="BJ206" s="4"/>
-      <c r="BK206" s="4"/>
-      <c r="BL206" s="4"/>
-      <c r="BM206" s="4"/>
-      <c r="BN206" s="4"/>
-      <c r="BO206" s="4"/>
-      <c r="BP206" s="4"/>
-      <c r="BQ206" s="4"/>
-      <c r="BR206" s="4"/>
-      <c r="BS206" s="4"/>
-      <c r="BT206" s="4"/>
-      <c r="BU206" s="4"/>
-      <c r="BV206" s="4"/>
-      <c r="BW206" s="4"/>
-      <c r="BX206" s="4"/>
-      <c r="BY206" s="4"/>
-      <c r="BZ206" s="4"/>
-      <c r="CA206" s="4"/>
-      <c r="CB206" s="4"/>
-      <c r="CC206" s="4"/>
-      <c r="CD206" s="4"/>
-      <c r="CE206" s="4"/>
-      <c r="CF206" s="4"/>
-      <c r="CG206" s="4"/>
-      <c r="CH206" s="4"/>
-      <c r="CI206" s="4"/>
-      <c r="CJ206" s="4"/>
-      <c r="CK206" s="4"/>
-      <c r="CL206" s="4"/>
-      <c r="CM206" s="4"/>
-      <c r="CN206" s="4"/>
-      <c r="CO206" s="4"/>
-    </row>
+    <row r="203" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="207" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="208" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21286,12 +21012,13 @@
     <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="S7:W7"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="AC7:AG7"/>
     <mergeCell ref="AH7:AL7"/>
     <mergeCell ref="AM7:AQ7"/>
     <mergeCell ref="CA7:CE7"/>
@@ -21304,11 +21031,6 @@
     <mergeCell ref="BL7:BP7"/>
     <mergeCell ref="BQ7:BU7"/>
     <mergeCell ref="BV7:BZ7"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="S7:W7"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="AC7:AG7"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0" footer="0"/>
   <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Nam3_HK1/CNPM_SoftTech/WorkBreakdownStructure.xlsx
+++ b/Nam3_HK1/CNPM_SoftTech/WorkBreakdownStructure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\SGU-Course\Nam3_HK1\CNPM_SoftTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9816E53A-49B6-4C57-BF80-55ACBFADBAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C692DB-2F04-44F9-82CB-E147303802CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="55">
   <si>
     <t>WORK BREAKDOWN STRUCTURE WITH GANTT CHART TEMPLATE</t>
   </si>
@@ -190,9 +190,6 @@
   </si>
   <si>
     <t xml:space="preserve">GỬI &amp; IN HOÁ ĐƠN </t>
-  </si>
-  <si>
-    <t>THẢO LUẬN</t>
   </si>
 </sst>
 </file>
@@ -669,19 +666,19 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -901,11 +898,11 @@
     <tabColor rgb="FFF2F2F2"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CO939"/>
+  <dimension ref="A1:CO937"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1312,125 +1309,125 @@
       <c r="H7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="49" t="s">
+      <c r="I7" s="43" t="s">
         <v>13</v>
       </c>
       <c r="J7" s="44"/>
       <c r="K7" s="44"/>
       <c r="L7" s="44"/>
       <c r="M7" s="45"/>
-      <c r="N7" s="43" t="s">
+      <c r="N7" s="46" t="s">
         <v>14</v>
       </c>
       <c r="O7" s="44"/>
       <c r="P7" s="44"/>
       <c r="Q7" s="44"/>
       <c r="R7" s="45"/>
-      <c r="S7" s="43" t="s">
+      <c r="S7" s="46" t="s">
         <v>15</v>
       </c>
       <c r="T7" s="44"/>
       <c r="U7" s="44"/>
       <c r="V7" s="44"/>
       <c r="W7" s="45"/>
-      <c r="X7" s="43" t="s">
+      <c r="X7" s="46" t="s">
         <v>16</v>
       </c>
       <c r="Y7" s="44"/>
       <c r="Z7" s="44"/>
       <c r="AA7" s="44"/>
       <c r="AB7" s="45"/>
-      <c r="AC7" s="43" t="s">
+      <c r="AC7" s="46" t="s">
         <v>17</v>
       </c>
       <c r="AD7" s="44"/>
       <c r="AE7" s="44"/>
       <c r="AF7" s="44"/>
       <c r="AG7" s="45"/>
-      <c r="AH7" s="43" t="s">
+      <c r="AH7" s="46" t="s">
         <v>18</v>
       </c>
       <c r="AI7" s="44"/>
       <c r="AJ7" s="44"/>
       <c r="AK7" s="44"/>
       <c r="AL7" s="45"/>
-      <c r="AM7" s="43" t="s">
+      <c r="AM7" s="46" t="s">
         <v>19</v>
       </c>
       <c r="AN7" s="44"/>
       <c r="AO7" s="44"/>
       <c r="AP7" s="44"/>
       <c r="AQ7" s="45"/>
-      <c r="AR7" s="43" t="s">
+      <c r="AR7" s="46" t="s">
         <v>20</v>
       </c>
       <c r="AS7" s="44"/>
       <c r="AT7" s="44"/>
       <c r="AU7" s="44"/>
       <c r="AV7" s="45"/>
-      <c r="AW7" s="43" t="s">
+      <c r="AW7" s="46" t="s">
         <v>21</v>
       </c>
       <c r="AX7" s="44"/>
       <c r="AY7" s="44"/>
       <c r="AZ7" s="44"/>
       <c r="BA7" s="45"/>
-      <c r="BB7" s="43" t="s">
+      <c r="BB7" s="46" t="s">
         <v>22</v>
       </c>
       <c r="BC7" s="44"/>
       <c r="BD7" s="44"/>
       <c r="BE7" s="44"/>
       <c r="BF7" s="45"/>
-      <c r="BG7" s="43" t="s">
+      <c r="BG7" s="46" t="s">
         <v>23</v>
       </c>
       <c r="BH7" s="44"/>
       <c r="BI7" s="44"/>
       <c r="BJ7" s="44"/>
       <c r="BK7" s="45"/>
-      <c r="BL7" s="43" t="s">
+      <c r="BL7" s="46" t="s">
         <v>24</v>
       </c>
       <c r="BM7" s="44"/>
       <c r="BN7" s="44"/>
       <c r="BO7" s="44"/>
       <c r="BP7" s="45"/>
-      <c r="BQ7" s="43" t="s">
+      <c r="BQ7" s="46" t="s">
         <v>25</v>
       </c>
       <c r="BR7" s="44"/>
       <c r="BS7" s="44"/>
       <c r="BT7" s="44"/>
       <c r="BU7" s="45"/>
-      <c r="BV7" s="46" t="s">
+      <c r="BV7" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="BW7" s="47"/>
-      <c r="BX7" s="47"/>
-      <c r="BY7" s="47"/>
-      <c r="BZ7" s="48"/>
-      <c r="CA7" s="46" t="s">
+      <c r="BW7" s="48"/>
+      <c r="BX7" s="48"/>
+      <c r="BY7" s="48"/>
+      <c r="BZ7" s="49"/>
+      <c r="CA7" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="CB7" s="47"/>
-      <c r="CC7" s="47"/>
-      <c r="CD7" s="47"/>
-      <c r="CE7" s="48"/>
-      <c r="CF7" s="46" t="s">
+      <c r="CB7" s="48"/>
+      <c r="CC7" s="48"/>
+      <c r="CD7" s="48"/>
+      <c r="CE7" s="49"/>
+      <c r="CF7" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="CG7" s="47"/>
-      <c r="CH7" s="47"/>
-      <c r="CI7" s="47"/>
-      <c r="CJ7" s="48"/>
-      <c r="CK7" s="46" t="s">
+      <c r="CG7" s="48"/>
+      <c r="CH7" s="48"/>
+      <c r="CI7" s="48"/>
+      <c r="CJ7" s="49"/>
+      <c r="CK7" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="CL7" s="47"/>
-      <c r="CM7" s="47"/>
-      <c r="CN7" s="47"/>
-      <c r="CO7" s="48"/>
+      <c r="CL7" s="48"/>
+      <c r="CM7" s="48"/>
+      <c r="CN7" s="48"/>
+      <c r="CO7" s="49"/>
     </row>
     <row r="8" spans="1:93" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -5255,205 +5252,195 @@
       <c r="CN44" s="25"/>
       <c r="CO44" s="25"/>
     </row>
-    <row r="45" spans="1:93" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:93" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
-      <c r="B45" s="42">
-        <v>19</v>
-      </c>
-      <c r="C45" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="29">
-        <v>0</v>
-      </c>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="27"/>
-      <c r="N45" s="27"/>
-      <c r="O45" s="27"/>
-      <c r="P45" s="27"/>
-      <c r="Q45" s="27"/>
-      <c r="R45" s="27"/>
-      <c r="S45" s="27"/>
-      <c r="T45" s="27"/>
-      <c r="U45" s="27"/>
-      <c r="V45" s="27"/>
-      <c r="W45" s="27"/>
-      <c r="X45" s="27"/>
-      <c r="Y45" s="27"/>
-      <c r="Z45" s="27"/>
-      <c r="AA45" s="27"/>
-      <c r="AB45" s="27"/>
-      <c r="AC45" s="27"/>
-      <c r="AD45" s="27"/>
-      <c r="AE45" s="27"/>
-      <c r="AF45" s="27"/>
-      <c r="AG45" s="27"/>
-      <c r="AH45" s="27"/>
-      <c r="AI45" s="27"/>
-      <c r="AJ45" s="27"/>
-      <c r="AK45" s="27"/>
-      <c r="AL45" s="27"/>
-      <c r="AM45" s="27"/>
-      <c r="AN45" s="27"/>
-      <c r="AO45" s="27"/>
-      <c r="AP45" s="27"/>
-      <c r="AQ45" s="27"/>
-      <c r="AR45" s="27"/>
-      <c r="AS45" s="27"/>
-      <c r="AT45" s="27"/>
-      <c r="AU45" s="27"/>
-      <c r="AV45" s="27"/>
-      <c r="AW45" s="27"/>
-      <c r="AX45" s="27"/>
-      <c r="AY45" s="27"/>
-      <c r="AZ45" s="27"/>
-      <c r="BA45" s="27"/>
-      <c r="BB45" s="27"/>
-      <c r="BC45" s="27"/>
-      <c r="BD45" s="27"/>
-      <c r="BE45" s="27"/>
-      <c r="BF45" s="27"/>
-      <c r="BG45" s="27"/>
-      <c r="BH45" s="27"/>
-      <c r="BI45" s="27"/>
-      <c r="BJ45" s="27"/>
-      <c r="BK45" s="27"/>
-      <c r="BL45" s="27"/>
-      <c r="BM45" s="27"/>
-      <c r="BN45" s="27"/>
-      <c r="BO45" s="27"/>
-      <c r="BP45" s="27"/>
-      <c r="BQ45" s="27"/>
-      <c r="BR45" s="27"/>
-      <c r="BS45" s="27"/>
-      <c r="BT45" s="27"/>
-      <c r="BU45" s="32"/>
-      <c r="BV45" s="25"/>
-      <c r="BW45" s="25"/>
-      <c r="BX45" s="25"/>
-      <c r="BY45" s="25"/>
-      <c r="BZ45" s="25"/>
-      <c r="CA45" s="25"/>
-      <c r="CB45" s="25"/>
-      <c r="CC45" s="25"/>
-      <c r="CD45" s="25"/>
-      <c r="CE45" s="25"/>
-      <c r="CF45" s="25"/>
-      <c r="CG45" s="25"/>
-      <c r="CH45" s="25"/>
-      <c r="CI45" s="25"/>
-      <c r="CJ45" s="25"/>
-      <c r="CK45" s="25"/>
-      <c r="CL45" s="25"/>
-      <c r="CM45" s="25"/>
-      <c r="CN45" s="25"/>
-      <c r="CO45" s="25"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="4"/>
+      <c r="AA45" s="4"/>
+      <c r="AB45" s="4"/>
+      <c r="AC45" s="4"/>
+      <c r="AD45" s="4"/>
+      <c r="AE45" s="4"/>
+      <c r="AF45" s="4"/>
+      <c r="AG45" s="4"/>
+      <c r="AH45" s="4"/>
+      <c r="AI45" s="4"/>
+      <c r="AJ45" s="4"/>
+      <c r="AK45" s="4"/>
+      <c r="AL45" s="4"/>
+      <c r="AM45" s="4"/>
+      <c r="AN45" s="4"/>
+      <c r="AO45" s="4"/>
+      <c r="AP45" s="4"/>
+      <c r="AQ45" s="4"/>
+      <c r="AR45" s="4"/>
+      <c r="AS45" s="4"/>
+      <c r="AT45" s="4"/>
+      <c r="AU45" s="4"/>
+      <c r="AV45" s="4"/>
+      <c r="AW45" s="4"/>
+      <c r="AX45" s="4"/>
+      <c r="AY45" s="4"/>
+      <c r="AZ45" s="4"/>
+      <c r="BA45" s="4"/>
+      <c r="BB45" s="4"/>
+      <c r="BC45" s="4"/>
+      <c r="BD45" s="4"/>
+      <c r="BE45" s="4"/>
+      <c r="BF45" s="4"/>
+      <c r="BG45" s="4"/>
+      <c r="BH45" s="4"/>
+      <c r="BI45" s="4"/>
+      <c r="BJ45" s="4"/>
+      <c r="BK45" s="4"/>
+      <c r="BL45" s="4"/>
+      <c r="BM45" s="4"/>
+      <c r="BN45" s="4"/>
+      <c r="BO45" s="4"/>
+      <c r="BP45" s="4"/>
+      <c r="BQ45" s="4"/>
+      <c r="BR45" s="4"/>
+      <c r="BS45" s="4"/>
+      <c r="BT45" s="4"/>
+      <c r="BU45" s="4"/>
+      <c r="BV45" s="4"/>
+      <c r="BW45" s="4"/>
+      <c r="BX45" s="4"/>
+      <c r="BY45" s="4"/>
+      <c r="BZ45" s="4"/>
+      <c r="CA45" s="4"/>
+      <c r="CB45" s="4"/>
+      <c r="CC45" s="4"/>
+      <c r="CD45" s="4"/>
+      <c r="CE45" s="4"/>
+      <c r="CF45" s="4"/>
+      <c r="CG45" s="4"/>
+      <c r="CH45" s="4"/>
+      <c r="CI45" s="4"/>
+      <c r="CJ45" s="4"/>
+      <c r="CK45" s="4"/>
+      <c r="CL45" s="4"/>
+      <c r="CM45" s="4"/>
+      <c r="CN45" s="4"/>
+      <c r="CO45" s="4"/>
     </row>
-    <row r="46" spans="1:93" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:93" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
-      <c r="B46" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="37"/>
-      <c r="M46" s="37"/>
-      <c r="N46" s="37"/>
-      <c r="O46" s="37"/>
-      <c r="P46" s="37"/>
-      <c r="Q46" s="37"/>
-      <c r="R46" s="37"/>
-      <c r="S46" s="37"/>
-      <c r="T46" s="37"/>
-      <c r="U46" s="37"/>
-      <c r="V46" s="37"/>
-      <c r="W46" s="37"/>
-      <c r="X46" s="37"/>
-      <c r="Y46" s="37"/>
-      <c r="Z46" s="37"/>
-      <c r="AA46" s="37"/>
-      <c r="AB46" s="37"/>
-      <c r="AC46" s="37"/>
-      <c r="AD46" s="37"/>
-      <c r="AE46" s="37"/>
-      <c r="AF46" s="37"/>
-      <c r="AG46" s="37"/>
-      <c r="AH46" s="37"/>
-      <c r="AI46" s="37"/>
-      <c r="AJ46" s="37"/>
-      <c r="AK46" s="37"/>
-      <c r="AL46" s="37"/>
-      <c r="AM46" s="37"/>
-      <c r="AN46" s="37"/>
-      <c r="AO46" s="37"/>
-      <c r="AP46" s="37"/>
-      <c r="AQ46" s="37"/>
-      <c r="AR46" s="37"/>
-      <c r="AS46" s="37"/>
-      <c r="AT46" s="37"/>
-      <c r="AU46" s="37"/>
-      <c r="AV46" s="37"/>
-      <c r="AW46" s="37"/>
-      <c r="AX46" s="37"/>
-      <c r="AY46" s="37"/>
-      <c r="AZ46" s="37"/>
-      <c r="BA46" s="37"/>
-      <c r="BB46" s="37"/>
-      <c r="BC46" s="37"/>
-      <c r="BD46" s="37"/>
-      <c r="BE46" s="37"/>
-      <c r="BF46" s="37"/>
-      <c r="BG46" s="37"/>
-      <c r="BH46" s="37"/>
-      <c r="BI46" s="37"/>
-      <c r="BJ46" s="37"/>
-      <c r="BK46" s="37"/>
-      <c r="BL46" s="37"/>
-      <c r="BM46" s="37"/>
-      <c r="BN46" s="37"/>
-      <c r="BO46" s="37"/>
-      <c r="BP46" s="37"/>
-      <c r="BQ46" s="37"/>
-      <c r="BR46" s="37"/>
-      <c r="BS46" s="37"/>
-      <c r="BT46" s="37"/>
-      <c r="BU46" s="38"/>
-      <c r="BV46" s="25"/>
-      <c r="BW46" s="25"/>
-      <c r="BX46" s="25"/>
-      <c r="BY46" s="25"/>
-      <c r="BZ46" s="25"/>
-      <c r="CA46" s="25"/>
-      <c r="CB46" s="25"/>
-      <c r="CC46" s="25"/>
-      <c r="CD46" s="25"/>
-      <c r="CE46" s="25"/>
-      <c r="CF46" s="25"/>
-      <c r="CG46" s="25"/>
-      <c r="CH46" s="25"/>
-      <c r="CI46" s="25"/>
-      <c r="CJ46" s="25"/>
-      <c r="CK46" s="25"/>
-      <c r="CL46" s="25"/>
-      <c r="CM46" s="25"/>
-      <c r="CN46" s="25"/>
-      <c r="CO46" s="25"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="4"/>
+      <c r="AA46" s="4"/>
+      <c r="AB46" s="4"/>
+      <c r="AC46" s="4"/>
+      <c r="AD46" s="4"/>
+      <c r="AE46" s="4"/>
+      <c r="AF46" s="4"/>
+      <c r="AG46" s="4"/>
+      <c r="AH46" s="4"/>
+      <c r="AI46" s="4"/>
+      <c r="AJ46" s="4"/>
+      <c r="AK46" s="4"/>
+      <c r="AL46" s="4"/>
+      <c r="AM46" s="4"/>
+      <c r="AN46" s="4"/>
+      <c r="AO46" s="4"/>
+      <c r="AP46" s="4"/>
+      <c r="AQ46" s="4"/>
+      <c r="AR46" s="4"/>
+      <c r="AS46" s="4"/>
+      <c r="AT46" s="4"/>
+      <c r="AU46" s="4"/>
+      <c r="AV46" s="4"/>
+      <c r="AW46" s="4"/>
+      <c r="AX46" s="4"/>
+      <c r="AY46" s="4"/>
+      <c r="AZ46" s="4"/>
+      <c r="BA46" s="4"/>
+      <c r="BB46" s="4"/>
+      <c r="BC46" s="4"/>
+      <c r="BD46" s="4"/>
+      <c r="BE46" s="4"/>
+      <c r="BF46" s="4"/>
+      <c r="BG46" s="4"/>
+      <c r="BH46" s="4"/>
+      <c r="BI46" s="4"/>
+      <c r="BJ46" s="4"/>
+      <c r="BK46" s="4"/>
+      <c r="BL46" s="4"/>
+      <c r="BM46" s="4"/>
+      <c r="BN46" s="4"/>
+      <c r="BO46" s="4"/>
+      <c r="BP46" s="4"/>
+      <c r="BQ46" s="4"/>
+      <c r="BR46" s="4"/>
+      <c r="BS46" s="4"/>
+      <c r="BT46" s="4"/>
+      <c r="BU46" s="4"/>
+      <c r="BV46" s="4"/>
+      <c r="BW46" s="4"/>
+      <c r="BX46" s="4"/>
+      <c r="BY46" s="4"/>
+      <c r="BZ46" s="4"/>
+      <c r="CA46" s="4"/>
+      <c r="CB46" s="4"/>
+      <c r="CC46" s="4"/>
+      <c r="CD46" s="4"/>
+      <c r="CE46" s="4"/>
+      <c r="CF46" s="4"/>
+      <c r="CG46" s="4"/>
+      <c r="CH46" s="4"/>
+      <c r="CI46" s="4"/>
+      <c r="CJ46" s="4"/>
+      <c r="CK46" s="4"/>
+      <c r="CL46" s="4"/>
+      <c r="CM46" s="4"/>
+      <c r="CN46" s="4"/>
+      <c r="CO46" s="4"/>
     </row>
     <row r="47" spans="1:93" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
@@ -20085,196 +20072,8 @@
       <c r="CN200" s="4"/>
       <c r="CO200" s="4"/>
     </row>
-    <row r="201" spans="1:93" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="4"/>
-      <c r="B201" s="4"/>
-      <c r="C201" s="4"/>
-      <c r="D201" s="4"/>
-      <c r="E201" s="4"/>
-      <c r="F201" s="4"/>
-      <c r="G201" s="4"/>
-      <c r="H201" s="4"/>
-      <c r="I201" s="4"/>
-      <c r="J201" s="4"/>
-      <c r="K201" s="4"/>
-      <c r="L201" s="4"/>
-      <c r="M201" s="4"/>
-      <c r="N201" s="4"/>
-      <c r="O201" s="4"/>
-      <c r="P201" s="4"/>
-      <c r="Q201" s="4"/>
-      <c r="R201" s="4"/>
-      <c r="S201" s="4"/>
-      <c r="T201" s="4"/>
-      <c r="U201" s="4"/>
-      <c r="V201" s="4"/>
-      <c r="W201" s="4"/>
-      <c r="X201" s="4"/>
-      <c r="Y201" s="4"/>
-      <c r="Z201" s="4"/>
-      <c r="AA201" s="4"/>
-      <c r="AB201" s="4"/>
-      <c r="AC201" s="4"/>
-      <c r="AD201" s="4"/>
-      <c r="AE201" s="4"/>
-      <c r="AF201" s="4"/>
-      <c r="AG201" s="4"/>
-      <c r="AH201" s="4"/>
-      <c r="AI201" s="4"/>
-      <c r="AJ201" s="4"/>
-      <c r="AK201" s="4"/>
-      <c r="AL201" s="4"/>
-      <c r="AM201" s="4"/>
-      <c r="AN201" s="4"/>
-      <c r="AO201" s="4"/>
-      <c r="AP201" s="4"/>
-      <c r="AQ201" s="4"/>
-      <c r="AR201" s="4"/>
-      <c r="AS201" s="4"/>
-      <c r="AT201" s="4"/>
-      <c r="AU201" s="4"/>
-      <c r="AV201" s="4"/>
-      <c r="AW201" s="4"/>
-      <c r="AX201" s="4"/>
-      <c r="AY201" s="4"/>
-      <c r="AZ201" s="4"/>
-      <c r="BA201" s="4"/>
-      <c r="BB201" s="4"/>
-      <c r="BC201" s="4"/>
-      <c r="BD201" s="4"/>
-      <c r="BE201" s="4"/>
-      <c r="BF201" s="4"/>
-      <c r="BG201" s="4"/>
-      <c r="BH201" s="4"/>
-      <c r="BI201" s="4"/>
-      <c r="BJ201" s="4"/>
-      <c r="BK201" s="4"/>
-      <c r="BL201" s="4"/>
-      <c r="BM201" s="4"/>
-      <c r="BN201" s="4"/>
-      <c r="BO201" s="4"/>
-      <c r="BP201" s="4"/>
-      <c r="BQ201" s="4"/>
-      <c r="BR201" s="4"/>
-      <c r="BS201" s="4"/>
-      <c r="BT201" s="4"/>
-      <c r="BU201" s="4"/>
-      <c r="BV201" s="4"/>
-      <c r="BW201" s="4"/>
-      <c r="BX201" s="4"/>
-      <c r="BY201" s="4"/>
-      <c r="BZ201" s="4"/>
-      <c r="CA201" s="4"/>
-      <c r="CB201" s="4"/>
-      <c r="CC201" s="4"/>
-      <c r="CD201" s="4"/>
-      <c r="CE201" s="4"/>
-      <c r="CF201" s="4"/>
-      <c r="CG201" s="4"/>
-      <c r="CH201" s="4"/>
-      <c r="CI201" s="4"/>
-      <c r="CJ201" s="4"/>
-      <c r="CK201" s="4"/>
-      <c r="CL201" s="4"/>
-      <c r="CM201" s="4"/>
-      <c r="CN201" s="4"/>
-      <c r="CO201" s="4"/>
-    </row>
-    <row r="202" spans="1:93" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="4"/>
-      <c r="B202" s="4"/>
-      <c r="C202" s="4"/>
-      <c r="D202" s="4"/>
-      <c r="E202" s="4"/>
-      <c r="F202" s="4"/>
-      <c r="G202" s="4"/>
-      <c r="H202" s="4"/>
-      <c r="I202" s="4"/>
-      <c r="J202" s="4"/>
-      <c r="K202" s="4"/>
-      <c r="L202" s="4"/>
-      <c r="M202" s="4"/>
-      <c r="N202" s="4"/>
-      <c r="O202" s="4"/>
-      <c r="P202" s="4"/>
-      <c r="Q202" s="4"/>
-      <c r="R202" s="4"/>
-      <c r="S202" s="4"/>
-      <c r="T202" s="4"/>
-      <c r="U202" s="4"/>
-      <c r="V202" s="4"/>
-      <c r="W202" s="4"/>
-      <c r="X202" s="4"/>
-      <c r="Y202" s="4"/>
-      <c r="Z202" s="4"/>
-      <c r="AA202" s="4"/>
-      <c r="AB202" s="4"/>
-      <c r="AC202" s="4"/>
-      <c r="AD202" s="4"/>
-      <c r="AE202" s="4"/>
-      <c r="AF202" s="4"/>
-      <c r="AG202" s="4"/>
-      <c r="AH202" s="4"/>
-      <c r="AI202" s="4"/>
-      <c r="AJ202" s="4"/>
-      <c r="AK202" s="4"/>
-      <c r="AL202" s="4"/>
-      <c r="AM202" s="4"/>
-      <c r="AN202" s="4"/>
-      <c r="AO202" s="4"/>
-      <c r="AP202" s="4"/>
-      <c r="AQ202" s="4"/>
-      <c r="AR202" s="4"/>
-      <c r="AS202" s="4"/>
-      <c r="AT202" s="4"/>
-      <c r="AU202" s="4"/>
-      <c r="AV202" s="4"/>
-      <c r="AW202" s="4"/>
-      <c r="AX202" s="4"/>
-      <c r="AY202" s="4"/>
-      <c r="AZ202" s="4"/>
-      <c r="BA202" s="4"/>
-      <c r="BB202" s="4"/>
-      <c r="BC202" s="4"/>
-      <c r="BD202" s="4"/>
-      <c r="BE202" s="4"/>
-      <c r="BF202" s="4"/>
-      <c r="BG202" s="4"/>
-      <c r="BH202" s="4"/>
-      <c r="BI202" s="4"/>
-      <c r="BJ202" s="4"/>
-      <c r="BK202" s="4"/>
-      <c r="BL202" s="4"/>
-      <c r="BM202" s="4"/>
-      <c r="BN202" s="4"/>
-      <c r="BO202" s="4"/>
-      <c r="BP202" s="4"/>
-      <c r="BQ202" s="4"/>
-      <c r="BR202" s="4"/>
-      <c r="BS202" s="4"/>
-      <c r="BT202" s="4"/>
-      <c r="BU202" s="4"/>
-      <c r="BV202" s="4"/>
-      <c r="BW202" s="4"/>
-      <c r="BX202" s="4"/>
-      <c r="BY202" s="4"/>
-      <c r="BZ202" s="4"/>
-      <c r="CA202" s="4"/>
-      <c r="CB202" s="4"/>
-      <c r="CC202" s="4"/>
-      <c r="CD202" s="4"/>
-      <c r="CE202" s="4"/>
-      <c r="CF202" s="4"/>
-      <c r="CG202" s="4"/>
-      <c r="CH202" s="4"/>
-      <c r="CI202" s="4"/>
-      <c r="CJ202" s="4"/>
-      <c r="CK202" s="4"/>
-      <c r="CL202" s="4"/>
-      <c r="CM202" s="4"/>
-      <c r="CN202" s="4"/>
-      <c r="CO202" s="4"/>
-    </row>
+    <row r="201" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="203" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="204" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="205" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21010,15 +20809,8 @@
     <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="S7:W7"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="AC7:AG7"/>
     <mergeCell ref="AH7:AL7"/>
     <mergeCell ref="AM7:AQ7"/>
     <mergeCell ref="CA7:CE7"/>
@@ -21031,6 +20823,11 @@
     <mergeCell ref="BL7:BP7"/>
     <mergeCell ref="BQ7:BU7"/>
     <mergeCell ref="BV7:BZ7"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="S7:W7"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="AC7:AG7"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0" footer="0"/>
   <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
